--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="387">
   <si>
     <t>Number</t>
   </si>
@@ -1166,6 +1166,15 @@
   </si>
   <si>
     <t>is_prime_with_history; prime_sieve; addToSet; genPrimesPairSet</t>
+  </si>
+  <si>
+    <t>V ~about 15 secs</t>
+  </si>
+  <si>
+    <t>XOR decryption</t>
+  </si>
+  <si>
+    <t>eu59.txt</t>
   </si>
 </sst>
 </file>
@@ -1569,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2674,6 +2683,21 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
+      <c r="B60" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C60" t="s">
+        <v>386</v>
+      </c>
+      <c r="F60" s="11">
+        <v>107359</v>
+      </c>
+      <c r="G60" s="5">
+        <v>41314</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="388">
   <si>
     <t>Number</t>
   </si>
@@ -1175,6 +1175,9 @@
   </si>
   <si>
     <t>eu59.txt</t>
+  </si>
+  <si>
+    <t>Strong Repunits</t>
   </si>
 </sst>
 </file>
@@ -1576,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J274"/>
+  <dimension ref="A1:J277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5016,86 +5019,86 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G242" s="5"/>
+      <c r="A242" s="1">
+        <v>346</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F242" s="11">
+        <v>3.3610879768925901E+17</v>
+      </c>
+      <c r="G242" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G243" s="5"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
+      <c r="G244" s="5"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G245" s="5"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
         <v>357</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B247" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D244" s="3" t="s">
+      <c r="D247" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F244" s="11">
+      <c r="F247" s="11">
         <v>1739023853137</v>
       </c>
-      <c r="G244" s="3" t="s">
+      <c r="G247" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="H244" s="1" t="s">
+      <c r="H247" s="1" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
-        <v>381</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="F249" s="11">
-        <v>139602943319822</v>
-      </c>
-      <c r="G249" s="5">
-        <v>42100</v>
-      </c>
-      <c r="H249" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="F252" s="11">
-        <v>696067597313468</v>
+        <v>139602943319822</v>
       </c>
       <c r="G252" s="5">
-        <v>42173</v>
+        <v>42100</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E255" s="3">
-        <v>137</v>
+        <v>375</v>
       </c>
       <c r="F255" s="11">
-        <v>252541322550</v>
+        <v>696067597313468</v>
       </c>
       <c r="G255" s="5">
-        <v>42178</v>
+        <v>42173</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>322</v>
@@ -5103,64 +5106,87 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
+        <v>435</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E258" s="3">
+        <v>137</v>
+      </c>
+      <c r="F258" s="11">
+        <v>252541322550</v>
+      </c>
+      <c r="G258" s="5">
+        <v>42178</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
         <v>493</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B261" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="D261" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F258" s="16" t="s">
+      <c r="F261" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="G258" s="5">
+      <c r="G261" s="5">
         <v>42069</v>
       </c>
-      <c r="H258" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
+      <c r="H261" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
         <v>500</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B267" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="D267" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="F264" s="11">
+      <c r="F267" s="11">
         <v>35407281</v>
       </c>
-      <c r="G264" s="5">
+      <c r="G267" s="5">
         <v>42069</v>
       </c>
-      <c r="H264" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
+      <c r="H267" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
         <v>516</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B277" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="D277" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E274" s="3" t="s">
+      <c r="E277" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F274" s="11">
+      <c r="F277" s="11">
         <v>939087315</v>
       </c>
-      <c r="G274" s="5">
+      <c r="G277" s="5">
         <v>42171</v>
       </c>
-      <c r="H274" s="1" t="s">
+      <c r="H277" s="1" t="s">
         <v>374</v>
       </c>
     </row>

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="390">
   <si>
     <t>Number</t>
   </si>
@@ -1178,6 +1178,12 @@
   </si>
   <si>
     <t>Strong Repunits</t>
+  </si>
+  <si>
+    <t>Largest integer divisible by two primes</t>
+  </si>
+  <si>
+    <t>prime_sieve; log_floor; M; S</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1588,7 @@
   <dimension ref="A1:J277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A230" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+      <selection activeCell="D244" sqref="D244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5036,7 +5042,24 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G243" s="5"/>
+      <c r="A243" s="1">
+        <v>347</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F243" s="11">
+        <v>11109800204052</v>
+      </c>
+      <c r="G243" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G244" s="5"/>

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="393">
   <si>
     <t>Number</t>
   </si>
@@ -1184,6 +1184,15 @@
   </si>
   <si>
     <t>prime_sieve; log_floor; M; S</t>
+  </si>
+  <si>
+    <t>0.999992836187</t>
+  </si>
+  <si>
+    <t>Billionaire</t>
+  </si>
+  <si>
+    <t>nCk; gradient_descent</t>
   </si>
 </sst>
 </file>
@@ -1585,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J277"/>
+  <dimension ref="A1:J280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D244" sqref="D244"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4852,106 +4861,97 @@
         <v>322</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>267</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F218" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G218" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
         <v>271</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D219" s="3" t="s">
+      <c r="D222" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F219" s="16" t="s">
+      <c r="F222" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="G219" s="5">
+      <c r="G222" s="5">
         <v>41897</v>
       </c>
-      <c r="H219" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
+      <c r="H222" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
         <v>301</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D221" s="3" t="s">
+      <c r="D224" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G221" s="5">
+      <c r="G224" s="5">
         <v>41746</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
         <v>303</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="D226" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G223" s="5">
+      <c r="G226" s="5">
         <v>41784</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>305</v>
-      </c>
-      <c r="E225" s="3">
-        <v>40</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>308</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F228" s="11">
-        <v>1539669807660920</v>
-      </c>
-      <c r="G228" s="5">
-        <v>41941</v>
-      </c>
-      <c r="H228" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G229" s="5"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G230" s="5"/>
+        <v>305</v>
+      </c>
+      <c r="E228" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E231" s="3">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="F231" s="11">
-        <v>13625242</v>
+        <v>1539669807660920</v>
       </c>
       <c r="G231" s="5">
-        <v>42161</v>
+        <v>41941</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -4962,189 +4962,195 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F234" s="16" t="s">
-        <v>342</v>
+        <v>356</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E234" s="3">
+        <v>159</v>
+      </c>
+      <c r="F234" s="11">
+        <v>13625242</v>
       </c>
       <c r="G234" s="5">
-        <v>42069</v>
+        <v>42161</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F235" s="16"/>
       <c r="G235" s="5"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G236" s="5"/>
     </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>323</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F237" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="G237" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
-        <v>329</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F238" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G238" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>322</v>
-      </c>
+      <c r="F238" s="16"/>
+      <c r="G238" s="5"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G239" s="5"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
+        <v>329</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F241" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G241" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
         <v>345</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B244" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D241" s="3" t="s">
+      <c r="D244" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F241" s="11">
+      <c r="F244" s="11">
         <v>13938</v>
       </c>
-      <c r="G241" s="5">
+      <c r="G244" s="5">
         <v>42010</v>
       </c>
-      <c r="H241" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
+      <c r="H244" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
         <v>346</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B245" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="F242" s="11">
+      <c r="F245" s="11">
         <v>3.3610879768925901E+17</v>
       </c>
-      <c r="G242" s="5">
+      <c r="G245" s="5">
         <v>42200</v>
       </c>
-      <c r="H242" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
+      <c r="H245" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
         <v>347</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="D246" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="F243" s="11">
+      <c r="F246" s="11">
         <v>11109800204052</v>
       </c>
-      <c r="G243" s="5">
+      <c r="G246" s="5">
         <v>42200</v>
       </c>
-      <c r="H243" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G244" s="5"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G245" s="5"/>
+      <c r="H246" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
+      <c r="G247" s="5"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G248" s="5"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
         <v>357</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B250" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D250" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F247" s="11">
+      <c r="F250" s="11">
         <v>1739023853137</v>
       </c>
-      <c r="G247" s="3" t="s">
+      <c r="G250" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="H247" s="1" t="s">
+      <c r="H250" s="1" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <v>381</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="F252" s="11">
-        <v>139602943319822</v>
-      </c>
-      <c r="G252" s="5">
-        <v>42100</v>
-      </c>
-      <c r="H252" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="F255" s="11">
-        <v>696067597313468</v>
+        <v>139602943319822</v>
       </c>
       <c r="G255" s="5">
-        <v>42173</v>
+        <v>42100</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E258" s="3">
-        <v>137</v>
+        <v>375</v>
       </c>
       <c r="F258" s="11">
-        <v>252541322550</v>
+        <v>696067597313468</v>
       </c>
       <c r="G258" s="5">
-        <v>42178</v>
+        <v>42173</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>322</v>
@@ -5152,64 +5158,87 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
+        <v>435</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E261" s="3">
+        <v>137</v>
+      </c>
+      <c r="F261" s="11">
+        <v>252541322550</v>
+      </c>
+      <c r="G261" s="5">
+        <v>42178</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
         <v>493</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B264" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="D264" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F261" s="16" t="s">
+      <c r="F264" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="G261" s="5">
+      <c r="G264" s="5">
         <v>42069</v>
       </c>
-      <c r="H261" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
+      <c r="H264" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
         <v>500</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B270" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D267" s="3" t="s">
+      <c r="D270" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="F267" s="11">
+      <c r="F270" s="11">
         <v>35407281</v>
       </c>
-      <c r="G267" s="5">
+      <c r="G270" s="5">
         <v>42069</v>
       </c>
-      <c r="H267" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
+      <c r="H270" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
         <v>516</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B280" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="D280" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E277" s="3" t="s">
+      <c r="E280" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F277" s="11">
+      <c r="F280" s="11">
         <v>939087315</v>
       </c>
-      <c r="G277" s="5">
+      <c r="G280" s="5">
         <v>42171</v>
       </c>
-      <c r="H277" s="1" t="s">
+      <c r="H280" s="1" t="s">
         <v>374</v>
       </c>
     </row>

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="397">
   <si>
     <t>Number</t>
   </si>
@@ -139,9 +139,6 @@
     <t>eu102.txt</t>
   </si>
   <si>
-    <t>class Point</t>
-  </si>
-  <si>
     <t>Envolved Functions / Classes</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>Counting summations</t>
   </si>
   <si>
-    <t>class multiset</t>
-  </si>
-  <si>
     <t>Square digit chains</t>
   </si>
   <si>
@@ -1193,6 +1187,24 @@
   </si>
   <si>
     <t>nCk; gradient_descent</t>
+  </si>
+  <si>
+    <t>CAGBIHEFJDK</t>
+  </si>
+  <si>
+    <t>Maximix Arrangements</t>
+  </si>
+  <si>
+    <t>multiset (class)</t>
+  </si>
+  <si>
+    <t>Point (class)</t>
+  </si>
+  <si>
+    <t>Train (class)</t>
+  </si>
+  <si>
+    <t>~about 1 minute</t>
   </si>
 </sst>
 </file>
@@ -1594,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J280"/>
+  <dimension ref="A1:J283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D218" sqref="D218"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H244" sqref="H244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,19 +1635,19 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1653,7 +1665,7 @@
         <v>41276</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1673,7 +1685,7 @@
         <v>41276</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1693,7 +1705,7 @@
         <v>41276</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1713,7 +1725,7 @@
         <v>41282</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1727,7 +1739,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F6" s="11">
         <v>232792560</v>
@@ -1736,7 +1748,7 @@
         <v>41278</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1756,7 +1768,7 @@
         <v>41282</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1779,7 +1791,7 @@
         <v>41278</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1801,7 +1813,7 @@
         <v>41282</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1815,10 +1827,10 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F10" s="11">
         <v>31875000</v>
@@ -1827,7 +1839,7 @@
         <v>41282</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1841,7 +1853,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F11" s="11">
         <v>142913828922</v>
@@ -1850,7 +1862,7 @@
         <v>41278</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1872,7 +1884,7 @@
         <v>41283</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1895,7 +1907,7 @@
         <v>41283</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1917,7 +1929,7 @@
         <v>41278</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1943,7 +1955,7 @@
         <v>41283</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1963,7 +1975,7 @@
         <v>41283</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1983,7 +1995,7 @@
         <v>41283</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2006,7 +2018,7 @@
         <v>41283</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2031,7 +2043,7 @@
         <v>41283</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2041,7 +2053,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="11">
         <v>171</v>
@@ -2050,7 +2062,7 @@
         <v>41283</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2060,7 +2072,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="11">
         <v>648</v>
@@ -2069,7 +2081,7 @@
         <v>41281</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2079,11 +2091,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="3">
         <v>23</v>
@@ -2095,7 +2107,7 @@
         <v>41283</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2105,13 +2117,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E23" s="3">
         <v>42</v>
@@ -2123,7 +2135,7 @@
         <v>41283</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2131,10 +2143,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="3">
         <v>21</v>
@@ -2146,7 +2158,7 @@
         <v>41284</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2154,7 +2166,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="11">
         <v>2783915460</v>
@@ -2163,7 +2175,7 @@
         <v>41284</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2171,10 +2183,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F26" s="11">
         <v>4782</v>
@@ -2183,7 +2195,7 @@
         <v>41284</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2191,10 +2203,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F27" s="11">
         <v>983</v>
@@ -2203,7 +2215,7 @@
         <v>41284</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2211,10 +2223,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F28" s="11">
         <v>-59231</v>
@@ -2223,7 +2235,7 @@
         <v>41284</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2231,7 +2243,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="3">
         <v>58</v>
@@ -2243,7 +2255,7 @@
         <v>41284</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2251,7 +2263,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="11">
         <v>9183</v>
@@ -2260,7 +2272,7 @@
         <v>41283</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2268,10 +2280,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F31" s="11">
         <v>443839</v>
@@ -2280,7 +2292,7 @@
         <v>41284</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2288,7 +2300,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G32" s="5">
         <v>41284</v>
@@ -2299,13 +2311,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G33" s="5">
         <v>41284</v>
@@ -2316,7 +2328,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G34" s="5">
         <v>41284</v>
@@ -2327,10 +2339,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E35" s="3">
         <v>74</v>
@@ -2344,10 +2356,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G36" s="5">
         <v>41284</v>
@@ -2358,10 +2370,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="5">
         <v>41284</v>
@@ -2372,10 +2384,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="G38" s="5">
         <v>41284</v>
@@ -2386,13 +2398,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G39" s="5">
         <v>41284</v>
@@ -2403,13 +2415,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G40" s="5">
         <v>41285</v>
@@ -2420,10 +2432,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E41" s="3">
         <v>305</v>
@@ -2435,7 +2447,7 @@
         <v>41285</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2443,13 +2455,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G42" s="5">
         <v>41285</v>
@@ -2460,16 +2472,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E43" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G43" s="5">
         <v>41285</v>
@@ -2480,13 +2492,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="G44" s="5">
         <v>41285</v>
@@ -2497,10 +2509,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E45" s="3">
         <v>45</v>
@@ -2514,13 +2526,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G46" s="5">
         <v>41285</v>
@@ -2531,10 +2543,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G47" s="5">
         <v>41287</v>
@@ -2545,10 +2557,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F48" s="11">
         <v>134043</v>
@@ -2562,7 +2574,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G49" s="5">
         <v>41286</v>
@@ -2573,10 +2585,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G50" s="5">
         <v>41286</v>
@@ -2587,10 +2599,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G51" s="5">
         <v>41286</v>
@@ -2601,10 +2613,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F52" s="11">
         <v>121313</v>
@@ -2613,7 +2625,7 @@
         <v>41903</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2621,10 +2633,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2632,10 +2644,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F54" s="11">
         <v>4075</v>
@@ -2644,7 +2656,7 @@
         <v>41287</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2652,10 +2664,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2663,10 +2675,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2674,10 +2686,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E58" s="3">
         <v>65</v>
@@ -2688,10 +2700,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E59" s="3">
         <v>28</v>
@@ -2702,10 +2714,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C60" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F60" s="11">
         <v>107359</v>
@@ -2714,7 +2726,7 @@
         <v>41314</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2722,10 +2734,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F61" s="11">
         <v>26033</v>
@@ -2734,7 +2746,7 @@
         <v>41777</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2742,10 +2754,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E62" s="8">
         <v>45</v>
@@ -2764,7 +2776,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
-        <v>71</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2772,7 +2784,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C64" s="3"/>
     </row>
@@ -2781,14 +2793,14 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F65" s="11">
         <v>1322</v>
@@ -2797,7 +2809,7 @@
         <v>41311</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2805,11 +2817,11 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E66" s="3">
         <v>57</v>
@@ -2820,14 +2832,14 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2849,11 +2861,11 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F69" s="11">
         <v>6531031914842720</v>
@@ -2867,11 +2879,11 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E70" s="3">
         <v>70</v>
@@ -2888,11 +2900,11 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E71" s="3">
         <v>69</v>
@@ -2909,11 +2921,11 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F72" s="11">
         <v>428570</v>
@@ -2931,10 +2943,10 @@
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F73" s="11">
         <v>303963552391</v>
@@ -2948,11 +2960,11 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F74" s="11">
         <v>7295372</v>
@@ -2973,7 +2985,7 @@
         <v>33</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2981,14 +2993,14 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2996,11 +3008,11 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3008,11 +3020,11 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3020,11 +3032,11 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G79" s="5">
         <v>41778</v>
@@ -3041,7 +3053,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C81" s="3"/>
       <c r="F81" s="11">
@@ -3051,7 +3063,7 @@
         <v>41298</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3059,13 +3071,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3073,16 +3085,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3090,16 +3102,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3107,11 +3119,11 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F85" s="11">
         <v>101524</v>
@@ -3125,11 +3137,11 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3137,7 +3149,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C87" s="3"/>
       <c r="F87" s="11">
@@ -3152,11 +3164,11 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3164,11 +3176,11 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F89" s="11">
         <v>7587457</v>
@@ -3188,11 +3200,11 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F91" s="11">
         <v>1217</v>
@@ -3206,7 +3218,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C92" s="3"/>
       <c r="F92" s="11">
@@ -3221,11 +3233,11 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E93" s="3">
         <v>14</v>
@@ -3242,11 +3254,11 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F94" s="11">
         <v>1258</v>
@@ -3260,7 +3272,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C95" s="3"/>
       <c r="F95" s="11">
@@ -3270,7 +3282,7 @@
         <v>41883</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3290,7 +3302,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" s="11">
         <v>24702</v>
@@ -3324,13 +3336,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C99" t="s">
+        <v>244</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="C99" t="s">
-        <v>246</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="F99" s="11">
         <v>18769</v>
@@ -3339,7 +3351,7 @@
         <v>41884</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3352,10 +3364,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E101" s="3">
         <v>66</v>
@@ -3369,10 +3381,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G102" s="5">
         <v>41778</v>
@@ -3389,7 +3401,7 @@
         <v>40</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>41</v>
+        <v>394</v>
       </c>
       <c r="G103" s="5">
         <v>41738</v>
@@ -3400,13 +3412,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D104" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="F104" s="11">
         <v>20313839404245</v>
@@ -3415,7 +3427,7 @@
         <v>41928</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3423,13 +3435,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G105" s="5">
         <v>41778</v>
@@ -3440,16 +3452,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C106" t="s">
+        <v>307</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="C106" t="s">
-        <v>309</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="F106" s="11">
         <v>73702</v>
@@ -3458,7 +3470,7 @@
         <v>41740</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3469,10 +3481,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F108" s="11">
         <v>259679</v>
@@ -3481,7 +3493,7 @@
         <v>41887</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3489,10 +3501,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E109" s="3">
         <v>110</v>
@@ -3506,10 +3518,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F110" s="11">
         <v>38182</v>
@@ -3523,10 +3535,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E111" s="3">
         <v>108</v>
@@ -3540,10 +3552,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E113" s="3">
         <v>113</v>
@@ -3557,10 +3569,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E114" s="3">
         <v>112</v>
@@ -3574,13 +3586,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F115" s="11">
         <v>16475640049</v>
@@ -3594,13 +3606,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F116" s="11">
         <v>168</v>
@@ -3614,13 +3626,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F117" s="11">
         <v>20492570929</v>
@@ -3634,13 +3646,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F118" s="11">
         <v>100808458960497</v>
@@ -3654,10 +3666,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E119" s="3">
         <v>41</v>
@@ -3669,7 +3681,7 @@
         <v>42167</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -3677,10 +3689,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -3688,10 +3700,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E121" s="3">
         <v>123</v>
@@ -3708,10 +3720,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F123" s="11">
         <v>1582</v>
@@ -3725,10 +3737,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E124" s="3">
         <v>120</v>
@@ -3740,7 +3752,7 @@
         <v>41930</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -3748,10 +3760,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F125" s="11">
         <v>21417</v>
@@ -3760,7 +3772,7 @@
         <v>41903</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -3768,10 +3780,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F126" s="11">
         <v>2906969179</v>
@@ -3780,7 +3792,7 @@
         <v>41903</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -3797,13 +3809,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="F130" s="11">
         <v>1000023</v>
@@ -3812,7 +3824,7 @@
         <v>41799</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -3820,13 +3832,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F131" s="11">
         <v>149253</v>
@@ -3835,7 +3847,7 @@
         <v>42166</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -3843,10 +3855,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F132" s="11">
         <v>173</v>
@@ -3860,13 +3872,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F133" s="11">
         <v>843296</v>
@@ -3880,13 +3892,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="F134" s="11">
         <v>453647705</v>
@@ -3895,7 +3907,7 @@
         <v>42166</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -3903,10 +3915,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F135" s="11">
         <v>1.86134266636171E+16</v>
@@ -3920,7 +3932,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E136" s="3">
         <v>136</v>
@@ -3932,7 +3944,7 @@
         <v>41906</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -3940,7 +3952,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E137" s="3">
         <v>135</v>
@@ -3952,7 +3964,7 @@
         <v>41906</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -3960,13 +3972,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F138" s="11">
         <v>1120149658760</v>
@@ -3975,7 +3987,7 @@
         <v>41901</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -3983,13 +3995,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="F139" s="11">
         <v>1118049290473930</v>
@@ -3998,7 +4010,7 @@
         <v>41901</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4006,7 +4018,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E140" s="3">
         <v>39</v>
@@ -4018,7 +4030,7 @@
         <v>41901</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4026,13 +4038,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F141" s="13">
         <v>5673835352990</v>
@@ -4041,7 +4053,7 @@
         <v>41901</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4057,7 +4069,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E145" s="3">
         <v>202</v>
@@ -4069,7 +4081,7 @@
         <v>42163</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -4077,10 +4089,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F146" s="11">
         <v>608720</v>
@@ -4094,10 +4106,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F147" s="11">
         <v>676333270</v>
@@ -4117,10 +4129,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E150" s="3">
         <v>150</v>
@@ -4132,7 +4144,7 @@
         <v>41910</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -4140,10 +4152,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E151" s="3">
         <v>149</v>
@@ -4155,7 +4167,7 @@
         <v>41910</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -4163,10 +4175,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F152" s="14">
         <v>0.46439900000000001</v>
@@ -4175,7 +4187,7 @@
         <v>41910</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4186,10 +4198,10 @@
         <v>155</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F155" s="11">
         <v>3857447</v>
@@ -4198,7 +4210,7 @@
         <v>41889</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -4206,13 +4218,13 @@
         <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E157" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="F157" s="11">
         <v>53490</v>
@@ -4221,7 +4233,7 @@
         <v>42001</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -4229,10 +4241,10 @@
         <v>158</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F158" s="11">
         <v>409511334375</v>
@@ -4241,7 +4253,7 @@
         <v>41915</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -4249,10 +4261,10 @@
         <v>159</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E159" s="3">
         <v>315</v>
@@ -4264,7 +4276,7 @@
         <v>41913</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -4272,10 +4284,10 @@
         <v>160</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F160" s="11">
         <v>16576</v>
@@ -4284,7 +4296,7 @@
         <v>41920</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -4292,16 +4304,16 @@
         <v>162</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G162" s="5">
         <v>41792</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -4312,10 +4324,10 @@
         <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F164" s="11">
         <v>378158756814587</v>
@@ -4329,10 +4341,10 @@
         <v>165</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F165" s="11">
         <v>2868868</v>
@@ -4352,7 +4364,7 @@
         <v>173</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E168" s="3">
         <v>174</v>
@@ -4364,7 +4376,7 @@
         <v>42130</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -4372,10 +4384,10 @@
         <v>174</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E169" s="3">
         <v>173</v>
@@ -4387,7 +4399,7 @@
         <v>42130</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -4398,7 +4410,7 @@
         <v>179</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F172" s="11">
         <v>986262</v>
@@ -4407,7 +4419,7 @@
         <v>41793</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -4418,10 +4430,10 @@
         <v>183</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E174" s="3">
         <v>190</v>
@@ -4433,7 +4445,7 @@
         <v>41891</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -4444,10 +4456,10 @@
         <v>185</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F176" s="11">
         <v>4640261571849530</v>
@@ -4456,7 +4468,7 @@
         <v>41891</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -4464,10 +4476,10 @@
         <v>186</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F177" s="11">
         <v>2325629</v>
@@ -4476,7 +4488,7 @@
         <v>41890</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -4484,10 +4496,10 @@
         <v>187</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F178" s="11">
         <v>17427258</v>
@@ -4496,7 +4508,7 @@
         <v>41889</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -4504,10 +4516,10 @@
         <v>188</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E179" s="3">
         <v>97</v>
@@ -4524,10 +4536,10 @@
         <v>190</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E181" s="3">
         <v>183</v>
@@ -4539,7 +4551,7 @@
         <v>41891</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -4547,10 +4559,10 @@
         <v>191</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F182" s="11">
         <v>1918080160</v>
@@ -4559,7 +4571,7 @@
         <v>41894</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -4567,10 +4579,10 @@
         <v>192</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E183" s="3">
         <v>64</v>
@@ -4582,7 +4594,7 @@
         <v>41904</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -4590,10 +4602,10 @@
         <v>197</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F186" s="15">
         <v>1.710637717</v>
@@ -4602,7 +4614,7 @@
         <v>42041</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -4618,10 +4630,10 @@
         <v>204</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F191" s="11">
         <v>2944730</v>
@@ -4635,7 +4647,7 @@
         <v>205</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F192" s="11">
         <v>0.57314410000000005</v>
@@ -4652,10 +4664,10 @@
         <v>206</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F194" s="11">
         <v>1389019170</v>
@@ -4669,10 +4681,10 @@
         <v>207</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F195" s="11">
         <v>44043947822</v>
@@ -4681,7 +4693,7 @@
         <v>42130</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -4692,10 +4704,10 @@
         <v>214</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E198" s="3">
         <v>70</v>
@@ -4712,10 +4724,10 @@
         <v>215</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F199" s="11">
         <v>806844323190414</v>
@@ -4724,7 +4736,7 @@
         <v>42041</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -4732,10 +4744,10 @@
         <v>216</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F200" s="11">
         <v>5437849</v>
@@ -4744,7 +4756,7 @@
         <v>42041</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -4755,7 +4767,7 @@
         <v>218</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F202" s="11">
         <v>0</v>
@@ -4764,7 +4776,7 @@
         <v>42041</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -4775,10 +4787,10 @@
         <v>225</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F205" s="11">
         <v>2009</v>
@@ -4787,7 +4799,7 @@
         <v>41926</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -4795,10 +4807,10 @@
         <v>227</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F207" s="11">
         <v>3780.618622</v>
@@ -4817,10 +4829,10 @@
         <v>248</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E213" s="3">
         <v>72</v>
@@ -4832,7 +4844,7 @@
         <v>41798</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -4846,10 +4858,10 @@
         <v>265</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F216" s="11">
         <v>209110240768</v>
@@ -4858,7 +4870,7 @@
         <v>42190</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -4866,19 +4878,19 @@
         <v>267</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F218" s="16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G218" s="5">
         <v>42200</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -4886,19 +4898,19 @@
         <v>271</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F222" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G222" s="5">
         <v>41897</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -4906,7 +4918,7 @@
         <v>301</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>14</v>
@@ -4920,10 +4932,10 @@
         <v>303</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G226" s="5">
         <v>41784</v>
@@ -4942,7 +4954,7 @@
         <v>308</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F231" s="11">
         <v>1539669807660920</v>
@@ -4951,7 +4963,7 @@
         <v>41941</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -4965,10 +4977,10 @@
         <v>315</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E234" s="3">
         <v>159</v>
@@ -4980,7 +4992,7 @@
         <v>42161</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -4994,16 +5006,16 @@
         <v>323</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F237" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G237" s="5">
         <v>42069</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -5018,228 +5030,248 @@
         <v>329</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F241" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G241" s="5">
         <v>42069</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
+        <v>336</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F244" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="G244" s="5">
+        <v>42201</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
         <v>345</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F244" s="11">
+      <c r="B247" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F247" s="11">
         <v>13938</v>
       </c>
-      <c r="G244" s="5">
+      <c r="G247" s="5">
         <v>42010</v>
       </c>
-      <c r="H244" s="1" t="s">
+      <c r="H247" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>346</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F248" s="11">
+        <v>3.3610879768925901E+17</v>
+      </c>
+      <c r="G248" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>347</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F249" s="11">
+        <v>11109800204052</v>
+      </c>
+      <c r="G249" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G250" s="5"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G251" s="5"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>357</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>346</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F245" s="11">
-        <v>3.3610879768925901E+17</v>
-      </c>
-      <c r="G245" s="5">
-        <v>42200</v>
-      </c>
-      <c r="H245" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>347</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="F246" s="11">
-        <v>11109800204052</v>
-      </c>
-      <c r="G246" s="5">
-        <v>42200</v>
-      </c>
-      <c r="H246" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G247" s="5"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G248" s="5"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>357</v>
-      </c>
-      <c r="B250" s="1" t="s">
+      <c r="D253" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F253" s="11">
+        <v>1739023853137</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H253" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F250" s="11">
-        <v>1739023853137</v>
-      </c>
-      <c r="G250" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="H250" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>381</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="F255" s="11">
-        <v>139602943319822</v>
-      </c>
-      <c r="G255" s="5">
-        <v>42100</v>
-      </c>
-      <c r="H255" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="F258" s="11">
-        <v>696067597313468</v>
+        <v>139602943319822</v>
       </c>
       <c r="G258" s="5">
-        <v>42173</v>
+        <v>42100</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E261" s="3">
-        <v>137</v>
+        <v>373</v>
       </c>
       <c r="F261" s="11">
-        <v>252541322550</v>
+        <v>696067597313468</v>
       </c>
       <c r="G261" s="5">
-        <v>42178</v>
+        <v>42173</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
+        <v>435</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E264" s="3">
+        <v>137</v>
+      </c>
+      <c r="F264" s="11">
+        <v>252541322550</v>
+      </c>
+      <c r="G264" s="5">
+        <v>42178</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
         <v>493</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B267" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F267" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G267" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>500</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D273" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D264" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F264" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="G264" s="5">
+      <c r="F273" s="11">
+        <v>35407281</v>
+      </c>
+      <c r="G273" s="5">
         <v>42069</v>
       </c>
-      <c r="H264" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <v>500</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F270" s="11">
-        <v>35407281</v>
-      </c>
-      <c r="G270" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H270" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
+      <c r="H273" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
         <v>516</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="B283" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F283" s="11">
+        <v>939087315</v>
+      </c>
+      <c r="G283" s="5">
+        <v>42171</v>
+      </c>
+      <c r="H283" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F280" s="11">
-        <v>939087315</v>
-      </c>
-      <c r="G280" s="5">
-        <v>42171</v>
-      </c>
-      <c r="H280" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="398">
   <si>
     <t>Number</t>
   </si>
@@ -1205,6 +1205,9 @@
   </si>
   <si>
     <t>~about 1 minute</t>
+  </si>
+  <si>
+    <t>Pen &amp; Paper</t>
   </si>
 </sst>
 </file>
@@ -1608,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H244" sqref="H244"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,11 +1620,12 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="115.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1649,6 +1653,9 @@
       <c r="H1" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -1667,7 +1674,9 @@
       <c r="H2" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1687,7 +1696,9 @@
       <c r="H3" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="400">
   <si>
     <t>Number</t>
   </si>
@@ -1208,6 +1208,12 @@
   </si>
   <si>
     <t>Pen &amp; Paper</t>
+  </si>
+  <si>
+    <t>Squarefree Binomial Coefficients</t>
+  </si>
+  <si>
+    <t>is_square_free</t>
   </si>
 </sst>
 </file>
@@ -1609,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J283"/>
+  <dimension ref="A1:J452"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1767,9 @@
       <c r="H6" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1781,7 +1789,9 @@
       <c r="H7" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1852,7 +1862,9 @@
       <c r="H10" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1988,7 +2000,9 @@
       <c r="H16" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2148,6 +2162,7 @@
       <c r="H23" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -2171,6 +2186,7 @@
       <c r="H24" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -2188,6 +2204,9 @@
       <c r="H25" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="I25" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -2208,6 +2227,9 @@
       <c r="H26" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="I26" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -2228,6 +2250,7 @@
       <c r="H27" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -2248,6 +2271,7 @@
       <c r="H28" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -2268,6 +2292,7 @@
       <c r="H29" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -2285,6 +2310,7 @@
       <c r="H30" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -2305,6 +2331,7 @@
       <c r="H31" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -2316,8 +2343,9 @@
       <c r="G32" s="5">
         <v>41284</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2333,8 +2361,9 @@
       <c r="G33" s="5">
         <v>41284</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2344,8 +2373,9 @@
       <c r="G34" s="5">
         <v>41284</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2361,8 +2391,9 @@
       <c r="G35" s="5">
         <v>41284</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2375,8 +2406,9 @@
       <c r="G36" s="5">
         <v>41284</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2389,8 +2421,9 @@
       <c r="G37" s="5">
         <v>41284</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2403,8 +2436,9 @@
       <c r="G38" s="5">
         <v>41284</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2420,8 +2454,9 @@
       <c r="G39" s="5">
         <v>41284</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2437,8 +2472,9 @@
       <c r="G40" s="5">
         <v>41285</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2460,8 +2496,9 @@
       <c r="H41" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2477,8 +2514,9 @@
       <c r="G42" s="5">
         <v>41285</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2497,8 +2535,9 @@
       <c r="G43" s="5">
         <v>41285</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2514,8 +2553,9 @@
       <c r="G44" s="5">
         <v>41285</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2531,8 +2571,9 @@
       <c r="G45" s="5">
         <v>41286</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2548,8 +2589,9 @@
       <c r="G46" s="5">
         <v>41285</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2562,8 +2604,9 @@
       <c r="G47" s="5">
         <v>41287</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2579,8 +2622,9 @@
       <c r="G48" s="5">
         <v>41283</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2590,8 +2634,9 @@
       <c r="G49" s="5">
         <v>41286</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2604,8 +2649,9 @@
       <c r="G50" s="5">
         <v>41286</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2618,8 +2664,9 @@
       <c r="G51" s="5">
         <v>41286</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2638,8 +2685,9 @@
       <c r="H52" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2649,8 +2697,9 @@
       <c r="D53" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2669,8 +2718,12 @@
       <c r="H54" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2680,8 +2733,9 @@
       <c r="D56" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2691,8 +2745,9 @@
       <c r="D57" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2705,8 +2760,9 @@
       <c r="E58" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2719,8 +2775,9 @@
       <c r="E59" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2739,8 +2796,9 @@
       <c r="H60" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2759,8 +2817,9 @@
       <c r="H61" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -2777,8 +2836,9 @@
       <c r="G62" s="9">
         <v>41777</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2789,8 +2849,9 @@
       <c r="D63" s="3" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2798,8 +2859,9 @@
         <v>133</v>
       </c>
       <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2822,8 +2884,9 @@
       <c r="H65" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2837,8 +2900,9 @@
       <c r="E66" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2852,8 +2916,9 @@
       <c r="E67" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2866,8 +2931,9 @@
       <c r="E68" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2884,8 +2950,9 @@
       <c r="G69" s="5">
         <v>41882</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2905,8 +2972,9 @@
       <c r="G70" s="5">
         <v>41303</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2926,8 +2994,9 @@
       <c r="G71" s="5">
         <v>41781</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2944,8 +3013,9 @@
       <c r="G72" s="5">
         <v>41315</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2965,8 +3035,9 @@
       <c r="G73" s="5">
         <v>41736</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2983,8 +3054,9 @@
       <c r="G74" s="5">
         <v>41782</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2998,8 +3070,9 @@
       <c r="E75" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3013,8 +3086,9 @@
       <c r="E76" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3025,8 +3099,9 @@
       <c r="D77" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3037,8 +3112,9 @@
       <c r="D78" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3052,14 +3128,16 @@
       <c r="G79" s="5">
         <v>41778</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3076,8 +3154,9 @@
       <c r="H81" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3090,8 +3169,9 @@
       <c r="E82" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3107,8 +3187,9 @@
       <c r="E83" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3124,8 +3205,9 @@
       <c r="E84" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3142,8 +3224,9 @@
       <c r="G85" s="5">
         <v>41879</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3154,8 +3237,9 @@
       <c r="D86" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3169,8 +3253,9 @@
       <c r="G87" s="5">
         <v>41886</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3181,8 +3266,9 @@
       <c r="D88" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3199,14 +3285,16 @@
       <c r="G89" s="5">
         <v>41884</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C90" s="3"/>
       <c r="E90" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3223,8 +3311,9 @@
       <c r="G91" s="5">
         <v>41880</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3238,8 +3327,9 @@
       <c r="G92" s="5">
         <v>41771</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3259,8 +3349,9 @@
       <c r="G93" s="5">
         <v>41289</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3277,8 +3368,9 @@
       <c r="G94" s="5">
         <v>41779</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3295,14 +3387,16 @@
       <c r="H95" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
       <c r="G96" s="5">
         <v>41289</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3321,8 +3415,9 @@
       <c r="G97" s="5">
         <v>41781</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3341,8 +3436,9 @@
       <c r="G98" s="5">
         <v>41324</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3364,13 +3460,15 @@
       <c r="H99" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G100" s="5">
         <v>41324</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3386,8 +3484,9 @@
       <c r="G101" s="5">
         <v>41774</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3400,8 +3499,9 @@
       <c r="G102" s="5">
         <v>41778</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3417,8 +3517,9 @@
       <c r="G103" s="5">
         <v>41738</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3440,8 +3541,9 @@
       <c r="H104" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3457,8 +3559,9 @@
       <c r="G105" s="5">
         <v>41778</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3483,11 +3586,13 @@
       <c r="H106" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3506,8 +3611,9 @@
       <c r="H108" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3523,8 +3629,9 @@
       <c r="G109" s="5">
         <v>41284</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3540,8 +3647,9 @@
       <c r="G110" s="5">
         <v>41879</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3557,8 +3665,12 @@
       <c r="G111" s="5">
         <v>41284</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3574,8 +3686,9 @@
       <c r="G113" s="5">
         <v>41772</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3591,8 +3704,9 @@
       <c r="G114" s="5">
         <v>41772</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3611,8 +3725,9 @@
       <c r="G115" s="5">
         <v>41787</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3631,8 +3746,9 @@
       <c r="G116" s="5">
         <v>41787</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3651,8 +3767,9 @@
       <c r="G117" s="5">
         <v>41787</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3671,8 +3788,9 @@
       <c r="G118" s="5">
         <v>41787</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3694,8 +3812,9 @@
       <c r="H119" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3705,8 +3824,9 @@
       <c r="D120" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3725,8 +3845,12 @@
       <c r="G121" s="5">
         <v>41772</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3742,8 +3866,9 @@
       <c r="G123" s="5">
         <v>41788</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3765,8 +3890,9 @@
       <c r="H124" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3785,8 +3911,9 @@
       <c r="H125" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3805,17 +3932,21 @@
       <c r="H126" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G127" s="5"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G129" s="5"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3837,8 +3968,9 @@
       <c r="H130" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3860,8 +3992,9 @@
       <c r="H131" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3877,8 +4010,9 @@
       <c r="G132" s="5">
         <v>41801</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3897,8 +4031,9 @@
       <c r="G133" s="5">
         <v>41800</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3920,8 +4055,9 @@
       <c r="H134" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3937,8 +4073,9 @@
       <c r="G135" s="5">
         <v>41800</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3957,8 +4094,9 @@
       <c r="H136" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3977,8 +4115,9 @@
       <c r="H137" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -4000,8 +4139,9 @@
       <c r="H138" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4023,8 +4163,9 @@
       <c r="H139" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4043,8 +4184,9 @@
       <c r="H140" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4066,16 +4208,22 @@
       <c r="H141" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F142" s="13"/>
       <c r="G142" s="5"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F143" s="13"/>
       <c r="G143" s="5"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4094,8 +4242,9 @@
       <c r="H145" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4111,8 +4260,9 @@
       <c r="G146" s="5">
         <v>41792</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4128,14 +4278,17 @@
       <c r="G147" s="5">
         <v>41770</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G148" s="5"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G149" s="5"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4157,8 +4310,9 @@
       <c r="H150" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4180,8 +4334,9 @@
       <c r="H151" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4200,11 +4355,16 @@
       <c r="H152" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G153" s="5"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -4223,8 +4383,12 @@
       <c r="H155" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -4246,8 +4410,9 @@
       <c r="H157" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -4266,8 +4431,9 @@
       <c r="H158" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -4289,8 +4455,9 @@
       <c r="H159" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -4309,8 +4476,12 @@
       <c r="H160" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -4326,11 +4497,13 @@
       <c r="H162" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G163" s="5"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -4346,8 +4519,9 @@
       <c r="G164" s="5">
         <v>41801</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -4363,14 +4537,17 @@
       <c r="G165" s="5">
         <v>41792</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G166" s="5"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G167" s="5"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>173</v>
       </c>
@@ -4389,8 +4566,9 @@
       <c r="H168" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>174</v>
       </c>
@@ -4412,11 +4590,16 @@
       <c r="H169" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G170" s="5"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>179</v>
       </c>
@@ -4432,11 +4615,13 @@
       <c r="H172" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G173" s="5"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>183</v>
       </c>
@@ -4458,11 +4643,13 @@
       <c r="H174" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G175" s="5"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>185</v>
       </c>
@@ -4481,8 +4668,9 @@
       <c r="H176" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>186</v>
       </c>
@@ -4501,8 +4689,9 @@
       <c r="H177" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>187</v>
       </c>
@@ -4521,8 +4710,9 @@
       <c r="H178" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>188</v>
       </c>
@@ -4541,8 +4731,12 @@
       <c r="G179" s="5">
         <v>41793</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I180" s="1"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>190</v>
       </c>
@@ -4564,8 +4758,9 @@
       <c r="H181" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I181" s="1"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>191</v>
       </c>
@@ -4584,8 +4779,9 @@
       <c r="H182" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>192</v>
       </c>
@@ -4607,8 +4803,15 @@
       <c r="H183" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>197</v>
       </c>
@@ -4627,16 +4830,45 @@
       <c r="H186" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>202</v>
       </c>
       <c r="E189" s="3">
         <v>144</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>203</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F190" s="11">
+        <v>34029210557338</v>
+      </c>
+      <c r="G190" s="5">
+        <v>42205</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>204</v>
       </c>
@@ -4652,8 +4884,9 @@
       <c r="G191" s="5">
         <v>41780</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>205</v>
       </c>
@@ -4666,11 +4899,13 @@
       <c r="G192" s="5">
         <v>41793</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G193" s="5"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>206</v>
       </c>
@@ -4686,8 +4921,9 @@
       <c r="G194" s="5">
         <v>41779</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I194" s="1"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>207</v>
       </c>
@@ -4706,11 +4942,16 @@
       <c r="H195" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I195" s="1"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G196" s="5"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>214</v>
       </c>
@@ -4729,8 +4970,9 @@
       <c r="G198" s="5">
         <v>41798</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>215</v>
       </c>
@@ -4749,8 +4991,9 @@
       <c r="H199" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I199" s="1"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>216</v>
       </c>
@@ -4769,11 +5012,13 @@
       <c r="H200" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G201" s="5"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>218</v>
       </c>
@@ -4789,11 +5034,16 @@
       <c r="H202" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G203" s="5"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I203" s="1"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I204" s="1"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>225</v>
       </c>
@@ -4812,8 +5062,12 @@
       <c r="H205" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I205" s="1"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I206" s="1"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>227</v>
       </c>
@@ -4829,13 +5083,27 @@
       <c r="G207" s="5">
         <v>41801</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I207" s="1"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I208" s="1"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I209" s="1"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>243</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I210" s="1"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I211" s="1"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I212" s="1"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>248</v>
       </c>
@@ -4857,14 +5125,17 @@
       <c r="H213" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I213" s="1"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G214" s="5"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I214" s="1"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G215" s="5"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>265</v>
       </c>
@@ -4883,8 +5154,12 @@
       <c r="H216" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>267</v>
       </c>
@@ -4903,8 +5178,18 @@
       <c r="H218" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>271</v>
       </c>
@@ -4923,8 +5208,12 @@
       <c r="H222" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I222" s="1"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>301</v>
       </c>
@@ -4937,8 +5226,12 @@
       <c r="G224" s="5">
         <v>41746</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I225" s="1"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>303</v>
       </c>
@@ -4951,16 +5244,27 @@
       <c r="G226" s="5">
         <v>41784</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I226" s="1"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>305</v>
       </c>
       <c r="E228" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I230" s="1"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>308</v>
       </c>
@@ -4976,14 +5280,17 @@
       <c r="H231" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G232" s="5"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I232" s="1"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G233" s="5"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>315</v>
       </c>
@@ -5005,14 +5312,17 @@
       <c r="H234" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G235" s="5"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G236" s="5"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>323</v>
       </c>
@@ -5028,15 +5338,21 @@
       <c r="H237" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F238" s="16"/>
       <c r="G238" s="5"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G239" s="5"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>329</v>
       </c>
@@ -5055,8 +5371,15 @@
       <c r="H241" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I242" s="1"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>336</v>
       </c>
@@ -5075,8 +5398,15 @@
       <c r="H244" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I244" s="1"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I245" s="1"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I246" s="1"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>345</v>
       </c>
@@ -5095,8 +5425,9 @@
       <c r="H247" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I247" s="1"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>346</v>
       </c>
@@ -5112,8 +5443,9 @@
       <c r="H248" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I248" s="1"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>347</v>
       </c>
@@ -5132,14 +5464,20 @@
       <c r="H249" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I249" s="1"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G250" s="5"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I250" s="1"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G251" s="5"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I251" s="1"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I252" s="1"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>357</v>
       </c>
@@ -5158,8 +5496,21 @@
       <c r="H253" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I253" s="1"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I254" s="1"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I255" s="1"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I256" s="1"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I257" s="1"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>381</v>
       </c>
@@ -5178,8 +5529,15 @@
       <c r="H258" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I258" s="1"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I259" s="1"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I260" s="1"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>387</v>
       </c>
@@ -5198,8 +5556,15 @@
       <c r="H261" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I261" s="1"/>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I262" s="1"/>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I263" s="1"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>435</v>
       </c>
@@ -5221,8 +5586,15 @@
       <c r="H264" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I264" s="1"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I265" s="1"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I266" s="1"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>493</v>
       </c>
@@ -5241,8 +5613,24 @@
       <c r="H267" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I267" s="1"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I268" s="1"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I269" s="1"/>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I270" s="1"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I271" s="1"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I272" s="1"/>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>500</v>
       </c>
@@ -5261,8 +5649,36 @@
       <c r="H273" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I273" s="1"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I274" s="1"/>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I275" s="1"/>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I276" s="1"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I277" s="1"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I278" s="1"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I279" s="1"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I280" s="1"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I281" s="1"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I282" s="1"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>516</v>
       </c>
@@ -5284,6 +5700,514 @@
       <c r="H283" s="1" t="s">
         <v>372</v>
       </c>
+      <c r="I283" s="1"/>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I284" s="1"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I285" s="1"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I286" s="1"/>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I287" s="1"/>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I288" s="1"/>
+    </row>
+    <row r="289" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I289" s="1"/>
+    </row>
+    <row r="290" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I290" s="1"/>
+    </row>
+    <row r="291" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I291" s="1"/>
+    </row>
+    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I292" s="1"/>
+    </row>
+    <row r="293" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I293" s="1"/>
+    </row>
+    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I294" s="1"/>
+    </row>
+    <row r="295" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I295" s="1"/>
+    </row>
+    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I296" s="1"/>
+    </row>
+    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I297" s="1"/>
+    </row>
+    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I298" s="1"/>
+    </row>
+    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I299" s="1"/>
+    </row>
+    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I300" s="1"/>
+    </row>
+    <row r="301" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I301" s="1"/>
+    </row>
+    <row r="302" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I302" s="1"/>
+    </row>
+    <row r="303" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I303" s="1"/>
+    </row>
+    <row r="304" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I304" s="1"/>
+    </row>
+    <row r="305" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I305" s="1"/>
+    </row>
+    <row r="306" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I306" s="1"/>
+    </row>
+    <row r="307" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I307" s="1"/>
+    </row>
+    <row r="308" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I308" s="1"/>
+    </row>
+    <row r="309" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I309" s="1"/>
+    </row>
+    <row r="310" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I310" s="1"/>
+    </row>
+    <row r="311" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I311" s="1"/>
+    </row>
+    <row r="312" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I312" s="1"/>
+    </row>
+    <row r="313" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I313" s="1"/>
+    </row>
+    <row r="314" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I314" s="1"/>
+    </row>
+    <row r="315" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I315" s="1"/>
+    </row>
+    <row r="316" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I316" s="1"/>
+    </row>
+    <row r="317" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I317" s="1"/>
+    </row>
+    <row r="318" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I318" s="1"/>
+    </row>
+    <row r="319" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I319" s="1"/>
+    </row>
+    <row r="320" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I320" s="1"/>
+    </row>
+    <row r="321" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I321" s="1"/>
+    </row>
+    <row r="322" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I322" s="1"/>
+    </row>
+    <row r="323" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I323" s="1"/>
+    </row>
+    <row r="324" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I324" s="1"/>
+    </row>
+    <row r="325" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I325" s="1"/>
+    </row>
+    <row r="326" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I326" s="1"/>
+    </row>
+    <row r="327" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I327" s="1"/>
+    </row>
+    <row r="328" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I328" s="1"/>
+    </row>
+    <row r="329" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I329" s="1"/>
+    </row>
+    <row r="330" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I330" s="1"/>
+    </row>
+    <row r="331" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I331" s="1"/>
+    </row>
+    <row r="332" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I332" s="1"/>
+    </row>
+    <row r="333" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I333" s="1"/>
+    </row>
+    <row r="334" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I334" s="1"/>
+    </row>
+    <row r="335" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I335" s="1"/>
+    </row>
+    <row r="336" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I336" s="1"/>
+    </row>
+    <row r="337" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I337" s="1"/>
+    </row>
+    <row r="338" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I338" s="1"/>
+    </row>
+    <row r="339" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I339" s="1"/>
+    </row>
+    <row r="340" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I340" s="1"/>
+    </row>
+    <row r="341" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I341" s="1"/>
+    </row>
+    <row r="342" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I342" s="1"/>
+    </row>
+    <row r="343" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I343" s="1"/>
+    </row>
+    <row r="344" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I344" s="1"/>
+    </row>
+    <row r="345" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I345" s="1"/>
+    </row>
+    <row r="346" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I346" s="1"/>
+    </row>
+    <row r="347" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I347" s="1"/>
+    </row>
+    <row r="348" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I348" s="1"/>
+    </row>
+    <row r="349" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I349" s="1"/>
+    </row>
+    <row r="350" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I350" s="1"/>
+    </row>
+    <row r="351" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I351" s="1"/>
+    </row>
+    <row r="352" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I352" s="1"/>
+    </row>
+    <row r="353" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I353" s="1"/>
+    </row>
+    <row r="354" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I354" s="1"/>
+    </row>
+    <row r="355" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I355" s="1"/>
+    </row>
+    <row r="356" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I356" s="1"/>
+    </row>
+    <row r="357" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I357" s="1"/>
+    </row>
+    <row r="358" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I358" s="1"/>
+    </row>
+    <row r="359" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I359" s="1"/>
+    </row>
+    <row r="360" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I360" s="1"/>
+    </row>
+    <row r="361" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I361" s="1"/>
+    </row>
+    <row r="362" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I362" s="1"/>
+    </row>
+    <row r="363" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I363" s="1"/>
+    </row>
+    <row r="364" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I364" s="1"/>
+    </row>
+    <row r="365" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I365" s="1"/>
+    </row>
+    <row r="366" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I366" s="1"/>
+    </row>
+    <row r="367" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I367" s="1"/>
+    </row>
+    <row r="368" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I368" s="1"/>
+    </row>
+    <row r="369" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I369" s="1"/>
+    </row>
+    <row r="370" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I370" s="1"/>
+    </row>
+    <row r="371" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I371" s="1"/>
+    </row>
+    <row r="372" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I372" s="1"/>
+    </row>
+    <row r="373" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I373" s="1"/>
+    </row>
+    <row r="374" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I374" s="1"/>
+    </row>
+    <row r="375" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I375" s="1"/>
+    </row>
+    <row r="376" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I376" s="1"/>
+    </row>
+    <row r="377" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I377" s="1"/>
+    </row>
+    <row r="378" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I378" s="1"/>
+    </row>
+    <row r="379" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I379" s="1"/>
+    </row>
+    <row r="380" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I380" s="1"/>
+    </row>
+    <row r="381" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I381" s="1"/>
+    </row>
+    <row r="382" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I382" s="1"/>
+    </row>
+    <row r="383" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I383" s="1"/>
+    </row>
+    <row r="384" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I384" s="1"/>
+    </row>
+    <row r="385" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I385" s="1"/>
+    </row>
+    <row r="386" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I386" s="1"/>
+    </row>
+    <row r="387" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I387" s="1"/>
+    </row>
+    <row r="388" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I388" s="1"/>
+    </row>
+    <row r="389" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I389" s="1"/>
+    </row>
+    <row r="390" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I390" s="1"/>
+    </row>
+    <row r="391" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I391" s="1"/>
+    </row>
+    <row r="392" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I392" s="1"/>
+    </row>
+    <row r="393" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I393" s="1"/>
+    </row>
+    <row r="394" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I394" s="1"/>
+    </row>
+    <row r="395" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I395" s="1"/>
+    </row>
+    <row r="396" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I396" s="1"/>
+    </row>
+    <row r="397" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I397" s="1"/>
+    </row>
+    <row r="398" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I398" s="1"/>
+    </row>
+    <row r="399" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I399" s="1"/>
+    </row>
+    <row r="400" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I400" s="1"/>
+    </row>
+    <row r="401" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I401" s="1"/>
+    </row>
+    <row r="402" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I402" s="1"/>
+    </row>
+    <row r="403" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I403" s="1"/>
+    </row>
+    <row r="404" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I404" s="1"/>
+    </row>
+    <row r="405" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I405" s="1"/>
+    </row>
+    <row r="406" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I406" s="1"/>
+    </row>
+    <row r="407" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I407" s="1"/>
+    </row>
+    <row r="408" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I408" s="1"/>
+    </row>
+    <row r="409" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I409" s="1"/>
+    </row>
+    <row r="410" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I410" s="1"/>
+    </row>
+    <row r="411" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I411" s="1"/>
+    </row>
+    <row r="412" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I412" s="1"/>
+    </row>
+    <row r="413" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I413" s="1"/>
+    </row>
+    <row r="414" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I414" s="1"/>
+    </row>
+    <row r="415" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I415" s="1"/>
+    </row>
+    <row r="416" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I416" s="1"/>
+    </row>
+    <row r="417" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I417" s="1"/>
+    </row>
+    <row r="418" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I418" s="1"/>
+    </row>
+    <row r="419" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I419" s="1"/>
+    </row>
+    <row r="420" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I420" s="1"/>
+    </row>
+    <row r="421" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I421" s="1"/>
+    </row>
+    <row r="422" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I422" s="1"/>
+    </row>
+    <row r="423" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I423" s="1"/>
+    </row>
+    <row r="424" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I424" s="1"/>
+    </row>
+    <row r="425" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I425" s="1"/>
+    </row>
+    <row r="426" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I426" s="1"/>
+    </row>
+    <row r="427" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I427" s="1"/>
+    </row>
+    <row r="428" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I428" s="1"/>
+    </row>
+    <row r="429" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I429" s="1"/>
+    </row>
+    <row r="430" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I430" s="1"/>
+    </row>
+    <row r="431" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I431" s="1"/>
+    </row>
+    <row r="432" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I432" s="1"/>
+    </row>
+    <row r="433" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I433" s="1"/>
+    </row>
+    <row r="434" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I434" s="1"/>
+    </row>
+    <row r="435" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I435" s="1"/>
+    </row>
+    <row r="436" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I436" s="1"/>
+    </row>
+    <row r="437" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I437" s="1"/>
+    </row>
+    <row r="438" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I438" s="1"/>
+    </row>
+    <row r="439" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I439" s="1"/>
+    </row>
+    <row r="440" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I440" s="1"/>
+    </row>
+    <row r="441" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I441" s="1"/>
+    </row>
+    <row r="442" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I442" s="1"/>
+    </row>
+    <row r="443" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I443" s="1"/>
+    </row>
+    <row r="444" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I444" s="1"/>
+    </row>
+    <row r="445" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I445" s="1"/>
+    </row>
+    <row r="446" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I446" s="1"/>
+    </row>
+    <row r="447" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I447" s="1"/>
+    </row>
+    <row r="448" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I448" s="1"/>
+    </row>
+    <row r="449" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I449" s="1"/>
+    </row>
+    <row r="450" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I450" s="1"/>
+    </row>
+    <row r="451" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I451" s="1"/>
+    </row>
+    <row r="452" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I452" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="402">
   <si>
     <t>Number</t>
   </si>
@@ -1214,6 +1214,12 @@
   </si>
   <si>
     <t>is_square_free</t>
+  </si>
+  <si>
+    <t>The prime factorisation of binomial coefficients</t>
+  </si>
+  <si>
+    <t>prime_sieve; exponent_of_p_in_binomial_coefficient</t>
   </si>
 </sst>
 </file>
@@ -1615,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J452"/>
+  <dimension ref="A1:J455"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5086,14 +5092,31 @@
       <c r="I207" s="1"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G208" s="5"/>
       <c r="I208" s="1"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G209" s="5"/>
       <c r="I209" s="1"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>243</v>
+        <v>231</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F210" s="11">
+        <v>7526965179680</v>
+      </c>
+      <c r="G210" s="5">
+        <v>42205</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="I210" s="1"/>
     </row>
@@ -5105,160 +5128,157 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>248</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E213" s="3">
-        <v>72</v>
-      </c>
-      <c r="F213" s="11">
-        <v>23507044290</v>
-      </c>
-      <c r="G213" s="5">
-        <v>41798</v>
-      </c>
-      <c r="H213" s="1" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="I213" s="1"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G214" s="5"/>
       <c r="I214" s="1"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G215" s="5"/>
       <c r="I215" s="1"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
+        <v>248</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E216" s="3">
+        <v>72</v>
+      </c>
+      <c r="F216" s="11">
+        <v>23507044290</v>
+      </c>
+      <c r="G216" s="5">
+        <v>41798</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G217" s="5"/>
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G218" s="5"/>
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>265</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="D219" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F216" s="11">
+      <c r="F219" s="11">
         <v>209110240768</v>
       </c>
-      <c r="G216" s="5">
+      <c r="G219" s="5">
         <v>42190</v>
       </c>
-      <c r="H216" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I216" s="1"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I217" s="1"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <v>267</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F218" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="G218" s="5">
-        <v>42200</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I218" s="1"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H219" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I219" s="1"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I220" s="1"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>267</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F221" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="G221" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I221" s="1"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>271</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F222" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="G222" s="5">
-        <v>41897</v>
-      </c>
-      <c r="H222" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I222" s="1"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I223" s="1"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>271</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F225" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="G225" s="5">
+        <v>41897</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I225" s="1"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I226" s="1"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
         <v>301</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="D227" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G224" s="5">
+      <c r="G227" s="5">
         <v>41746</v>
       </c>
-      <c r="I224" s="1"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I225" s="1"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
         <v>303</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D226" s="3" t="s">
+      <c r="D229" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G226" s="5">
+      <c r="G229" s="5">
         <v>41784</v>
       </c>
-      <c r="I226" s="1"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I227" s="1"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
-        <v>305</v>
-      </c>
-      <c r="E228" s="3">
-        <v>40</v>
-      </c>
-      <c r="I228" s="1"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I229" s="1"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -5266,51 +5286,34 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>308</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F231" s="11">
-        <v>1539669807660920</v>
-      </c>
-      <c r="G231" s="5">
-        <v>41941</v>
-      </c>
-      <c r="H231" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
+      </c>
+      <c r="E231" s="3">
+        <v>40</v>
       </c>
       <c r="I231" s="1"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G232" s="5"/>
       <c r="I232" s="1"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G233" s="5"/>
       <c r="I233" s="1"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
+        <v>308</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E234" s="3">
-        <v>159</v>
-      </c>
       <c r="F234" s="11">
-        <v>13625242</v>
+        <v>1539669807660920</v>
       </c>
       <c r="G234" s="5">
-        <v>42161</v>
+        <v>41941</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I234" s="1"/>
     </row>
@@ -5324,16 +5327,22 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F237" s="16" t="s">
-        <v>340</v>
+        <v>354</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E237" s="3">
+        <v>159</v>
+      </c>
+      <c r="F237" s="11">
+        <v>13625242</v>
       </c>
       <c r="G237" s="5">
-        <v>42069</v>
+        <v>42161</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>320</v>
@@ -5341,7 +5350,6 @@
       <c r="I237" s="1"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F238" s="16"/>
       <c r="G238" s="5"/>
       <c r="I238" s="1"/>
     </row>
@@ -5350,30 +5358,30 @@
       <c r="I239" s="1"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>323</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F240" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G240" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I240" s="1"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>329</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F241" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="G241" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H241" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="F241" s="16"/>
+      <c r="G241" s="5"/>
       <c r="I241" s="1"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G242" s="5"/>
       <c r="I242" s="1"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -5381,22 +5389,22 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="F244" s="11" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="G244" s="5">
-        <v>42201</v>
+        <v>42069</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>396</v>
+        <v>320</v>
       </c>
       <c r="I244" s="1"/>
     </row>
@@ -5408,127 +5416,127 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
+        <v>336</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F247" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="G247" s="5">
+        <v>42201</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I247" s="1"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I248" s="1"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I249" s="1"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
         <v>345</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B250" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D250" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F247" s="11">
+      <c r="F250" s="11">
         <v>13938</v>
       </c>
-      <c r="G247" s="5">
+      <c r="G250" s="5">
         <v>42010</v>
       </c>
-      <c r="H247" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I247" s="1"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
+      <c r="H250" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I250" s="1"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
         <v>346</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F248" s="11">
+      <c r="F251" s="11">
         <v>3.3610879768925901E+17</v>
       </c>
-      <c r="G248" s="5">
+      <c r="G251" s="5">
         <v>42200</v>
       </c>
-      <c r="H248" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I248" s="1"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
+      <c r="H251" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I251" s="1"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
         <v>347</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="D252" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F249" s="11">
+      <c r="F252" s="11">
         <v>11109800204052</v>
       </c>
-      <c r="G249" s="5">
+      <c r="G252" s="5">
         <v>42200</v>
       </c>
-      <c r="H249" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I249" s="1"/>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G250" s="5"/>
-      <c r="I250" s="1"/>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G251" s="5"/>
-      <c r="I251" s="1"/>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H252" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I252" s="1"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
-        <v>357</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F253" s="11">
-        <v>1739023853137</v>
-      </c>
-      <c r="G253" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H253" s="1" t="s">
-        <v>324</v>
-      </c>
+      <c r="G253" s="5"/>
       <c r="I253" s="1"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G254" s="5"/>
       <c r="I254" s="1"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I255" s="1"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>357</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F256" s="11">
+        <v>1739023853137</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="I256" s="1"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I257" s="1"/>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>381</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F258" s="11">
-        <v>139602943319822</v>
-      </c>
-      <c r="G258" s="5">
-        <v>42100</v>
-      </c>
-      <c r="H258" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="I258" s="1"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -5539,22 +5547,22 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="F261" s="11">
-        <v>696067597313468</v>
+        <v>139602943319822</v>
       </c>
       <c r="G261" s="5">
-        <v>42173</v>
+        <v>42100</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="I261" s="1"/>
     </row>
@@ -5566,22 +5574,19 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E264" s="3">
-        <v>137</v>
+        <v>373</v>
       </c>
       <c r="F264" s="11">
-        <v>252541322550</v>
+        <v>696067597313468</v>
       </c>
       <c r="G264" s="5">
-        <v>42178</v>
+        <v>42173</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>320</v>
@@ -5596,19 +5601,22 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>493</v>
+        <v>435</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F267" s="16" t="s">
-        <v>341</v>
+        <v>376</v>
+      </c>
+      <c r="E267" s="3">
+        <v>137</v>
+      </c>
+      <c r="F267" s="11">
+        <v>252541322550</v>
       </c>
       <c r="G267" s="5">
-        <v>42069</v>
+        <v>42178</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>320</v>
@@ -5622,6 +5630,24 @@
       <c r="I269" s="1"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>493</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F270" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G270" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I270" s="1"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -5631,24 +5657,6 @@
       <c r="I272" s="1"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <v>500</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F273" s="11">
-        <v>35407281</v>
-      </c>
-      <c r="G273" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H273" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I273" s="1"/>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -5658,6 +5666,24 @@
       <c r="I275" s="1"/>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>500</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F276" s="11">
+        <v>35407281</v>
+      </c>
+      <c r="G276" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I276" s="1"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -5679,27 +5705,6 @@
       <c r="I282" s="1"/>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
-        <v>516</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E283" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F283" s="11">
-        <v>939087315</v>
-      </c>
-      <c r="G283" s="5">
-        <v>42171</v>
-      </c>
-      <c r="H283" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="I283" s="1"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -5709,6 +5714,27 @@
       <c r="I285" s="1"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>516</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F286" s="11">
+        <v>939087315</v>
+      </c>
+      <c r="G286" s="5">
+        <v>42171</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="I286" s="1"/>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -6208,6 +6234,15 @@
     </row>
     <row r="452" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I452" s="1"/>
+    </row>
+    <row r="453" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I453" s="1"/>
+    </row>
+    <row r="454" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I454" s="1"/>
+    </row>
+    <row r="455" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I455" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="405">
   <si>
     <t>Number</t>
   </si>
@@ -1220,6 +1220,15 @@
   </si>
   <si>
     <t>prime_sieve; exponent_of_p_in_binomial_coefficient</t>
+  </si>
+  <si>
+    <t>Square on the Inside</t>
+  </si>
+  <si>
+    <t>gcd; internal_lattice_points</t>
+  </si>
+  <si>
+    <t>~about 4 minutes</t>
   </si>
 </sst>
 </file>
@@ -1623,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C280" sqref="C280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5696,6 +5705,24 @@
       <c r="I279" s="1"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>504</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F280" s="11">
+        <v>694687</v>
+      </c>
+      <c r="G280" s="5">
+        <v>42209</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="I280" s="1"/>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="408">
   <si>
     <t>Number</t>
   </si>
@@ -1229,6 +1229,15 @@
   </si>
   <si>
     <t>~about 4 minutes</t>
+  </si>
+  <si>
+    <t>prime_sieve; exp_of_p_in_factorial</t>
+  </si>
+  <si>
+    <t>Sum of squares of unitary divisors</t>
+  </si>
+  <si>
+    <t>~about 30 secs</t>
   </si>
 </sst>
 </file>
@@ -1630,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J455"/>
+  <dimension ref="A1:J459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C280" sqref="C280"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4872,6 +4881,9 @@
       <c r="D190" s="3" t="s">
         <v>399</v>
       </c>
+      <c r="E190" s="3">
+        <v>429</v>
+      </c>
       <c r="F190" s="11">
         <v>34029210557338</v>
       </c>
@@ -5610,25 +5622,25 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="E267" s="3">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="F267" s="11">
-        <v>252541322550</v>
+        <v>98792821</v>
       </c>
       <c r="G267" s="5">
-        <v>42178</v>
+        <v>42209</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="I267" s="1"/>
     </row>
@@ -5639,27 +5651,30 @@
       <c r="I269" s="1"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <v>493</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F270" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="G270" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H270" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I270" s="1"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>435</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E271" s="3">
+        <v>137</v>
+      </c>
+      <c r="F271" s="11">
+        <v>252541322550</v>
+      </c>
+      <c r="G271" s="5">
+        <v>42178</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I271" s="1"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -5669,30 +5684,30 @@
       <c r="I273" s="1"/>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>493</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F274" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G274" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I274" s="1"/>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I275" s="1"/>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
-        <v>500</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F276" s="11">
-        <v>35407281</v>
-      </c>
-      <c r="G276" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H276" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I276" s="1"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -5706,22 +5721,22 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>402</v>
+        <v>343</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>403</v>
+        <v>344</v>
       </c>
       <c r="F280" s="11">
-        <v>694687</v>
+        <v>35407281</v>
       </c>
       <c r="G280" s="5">
-        <v>42209</v>
+        <v>42069</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>404</v>
+        <v>320</v>
       </c>
       <c r="I280" s="1"/>
     </row>
@@ -5735,33 +5750,30 @@
       <c r="I283" s="1"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>504</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F284" s="11">
+        <v>694687</v>
+      </c>
+      <c r="G284" s="5">
+        <v>42209</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="I284" s="1"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I285" s="1"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
-        <v>516</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E286" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F286" s="11">
-        <v>939087315</v>
-      </c>
-      <c r="G286" s="5">
-        <v>42171</v>
-      </c>
-      <c r="H286" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="I286" s="1"/>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -5770,52 +5782,73 @@
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I288" s="1"/>
     </row>
-    <row r="289" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I289" s="1"/>
     </row>
-    <row r="290" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>516</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F290" s="11">
+        <v>939087315</v>
+      </c>
+      <c r="G290" s="5">
+        <v>42171</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="I290" s="1"/>
     </row>
-    <row r="291" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I291" s="1"/>
     </row>
-    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I292" s="1"/>
     </row>
-    <row r="293" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I293" s="1"/>
     </row>
-    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I294" s="1"/>
     </row>
-    <row r="295" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I295" s="1"/>
     </row>
-    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I296" s="1"/>
     </row>
-    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I297" s="1"/>
     </row>
-    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I298" s="1"/>
     </row>
-    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I299" s="1"/>
     </row>
-    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I300" s="1"/>
     </row>
-    <row r="301" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I301" s="1"/>
     </row>
-    <row r="302" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I302" s="1"/>
     </row>
-    <row r="303" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I303" s="1"/>
     </row>
-    <row r="304" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I304" s="1"/>
     </row>
     <row r="305" spans="9:9" x14ac:dyDescent="0.25">
@@ -6270,6 +6303,18 @@
     </row>
     <row r="455" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I455" s="1"/>
+    </row>
+    <row r="456" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I456" s="1"/>
+    </row>
+    <row r="457" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I457" s="1"/>
+    </row>
+    <row r="458" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I458" s="1"/>
+    </row>
+    <row r="459" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I459" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="410">
   <si>
     <t>Number</t>
   </si>
@@ -1238,6 +1238,12 @@
   </si>
   <si>
     <t>~about 30 secs</t>
+  </si>
+  <si>
+    <t>272, 421</t>
+  </si>
+  <si>
+    <t>271, 421</t>
   </si>
 </sst>
 </file>
@@ -1639,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J459"/>
+  <dimension ref="A1:J465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C196" sqref="C196"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5145,91 +5151,79 @@
       <c r="I211" s="1"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>233</v>
+      </c>
+      <c r="E212" s="3">
+        <v>354</v>
+      </c>
       <c r="I212" s="1"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>243</v>
-      </c>
       <c r="I213" s="1"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I214" s="1"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>243</v>
+      </c>
       <c r="I215" s="1"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
         <v>248</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="D218" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E216" s="3">
+      <c r="E218" s="3">
         <v>72</v>
       </c>
-      <c r="F216" s="11">
+      <c r="F218" s="11">
         <v>23507044290</v>
       </c>
-      <c r="G216" s="5">
+      <c r="G218" s="5">
         <v>41798</v>
       </c>
-      <c r="H216" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I216" s="1"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G217" s="5"/>
-      <c r="I217" s="1"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G218" s="5"/>
+      <c r="H218" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I218" s="1"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <v>265</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F219" s="11">
-        <v>209110240768</v>
-      </c>
-      <c r="G219" s="5">
-        <v>42190</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G219" s="5"/>
       <c r="I219" s="1"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G220" s="5"/>
       <c r="I220" s="1"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F221" s="16" t="s">
-        <v>388</v>
+        <v>379</v>
+      </c>
+      <c r="F221" s="11">
+        <v>209110240768</v>
       </c>
       <c r="G221" s="5">
-        <v>42200</v>
+        <v>42190</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>320</v>
@@ -5240,30 +5234,30 @@
       <c r="I222" s="1"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>267</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F223" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="G223" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I223" s="1"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I224" s="1"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>271</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F225" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="G225" s="5">
-        <v>41897</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I225" s="1"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -5271,35 +5265,42 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>14</v>
+        <v>369</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F227" s="16" t="s">
+        <v>368</v>
       </c>
       <c r="G227" s="5">
-        <v>41746</v>
+        <v>41897</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="I227" s="1"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>272</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F228" s="16"/>
+      <c r="G228" s="5"/>
       <c r="I228" s="1"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
-        <v>303</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G229" s="5">
-        <v>41784</v>
-      </c>
+      <c r="F229" s="16"/>
+      <c r="G229" s="5"/>
       <c r="I229" s="1"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -5307,10 +5308,16 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>305</v>
-      </c>
-      <c r="E231" s="3">
-        <v>40</v>
+        <v>301</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G231" s="5">
+        <v>41746</v>
       </c>
       <c r="I231" s="1"/>
     </row>
@@ -5318,60 +5325,54 @@
       <c r="I232" s="1"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>303</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G233" s="5">
+        <v>41784</v>
+      </c>
       <c r="I233" s="1"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>305</v>
+      </c>
+      <c r="E235" s="3">
+        <v>40</v>
+      </c>
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
         <v>308</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F234" s="11">
+      <c r="F238" s="11">
         <v>1539669807660920</v>
       </c>
-      <c r="G234" s="5">
+      <c r="G238" s="5">
         <v>41941</v>
       </c>
-      <c r="H234" s="1" t="s">
+      <c r="H238" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I234" s="1"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G235" s="5"/>
-      <c r="I235" s="1"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G236" s="5"/>
-      <c r="I236" s="1"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
-        <v>315</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E237" s="3">
-        <v>159</v>
-      </c>
-      <c r="F237" s="11">
-        <v>13625242</v>
-      </c>
-      <c r="G237" s="5">
-        <v>42161</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I237" s="1"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G238" s="5"/>
       <c r="I238" s="1"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -5379,26 +5380,31 @@
       <c r="I239" s="1"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>323</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F240" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="G240" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H240" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G240" s="5"/>
       <c r="I240" s="1"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F241" s="16"/>
-      <c r="G241" s="5"/>
+      <c r="A241" s="1">
+        <v>315</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E241" s="3">
+        <v>159</v>
+      </c>
+      <c r="F241" s="11">
+        <v>13625242</v>
+      </c>
+      <c r="G241" s="5">
+        <v>42161</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I241" s="1"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -5406,20 +5412,18 @@
       <c r="I242" s="1"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G243" s="5"/>
       <c r="I243" s="1"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F244" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
+      </c>
+      <c r="F244" s="16" t="s">
+        <v>340</v>
       </c>
       <c r="G244" s="5">
         <v>42069</v>
@@ -5430,188 +5434,181 @@
       <c r="I244" s="1"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F245" s="16"/>
+      <c r="G245" s="5"/>
       <c r="I245" s="1"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G246" s="5"/>
       <c r="I246" s="1"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>336</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F247" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="G247" s="5">
-        <v>42201</v>
-      </c>
-      <c r="H247" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="I247" s="1"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>329</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F248" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="G248" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I248" s="1"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I249" s="1"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>345</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F250" s="11">
-        <v>13938</v>
-      </c>
-      <c r="G250" s="5">
-        <v>42010</v>
-      </c>
-      <c r="H250" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I250" s="1"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
+        <v>336</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F251" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="G251" s="5">
+        <v>42201</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I251" s="1"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I252" s="1"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I253" s="1"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>345</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F254" s="11">
+        <v>13938</v>
+      </c>
+      <c r="G254" s="5">
+        <v>42010</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I254" s="1"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
         <v>346</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B255" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F251" s="11">
+      <c r="F255" s="11">
         <v>3.3610879768925901E+17</v>
       </c>
-      <c r="G251" s="5">
+      <c r="G255" s="5">
         <v>42200</v>
       </c>
-      <c r="H251" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I251" s="1"/>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <v>347</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F252" s="11">
-        <v>11109800204052</v>
-      </c>
-      <c r="G252" s="5">
-        <v>42200</v>
-      </c>
-      <c r="H252" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I252" s="1"/>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G253" s="5"/>
-      <c r="I253" s="1"/>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G254" s="5"/>
-      <c r="I254" s="1"/>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H255" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I255" s="1"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
+        <v>347</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F256" s="11">
+        <v>11109800204052</v>
+      </c>
+      <c r="G256" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I256" s="1"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G257" s="5"/>
+      <c r="I257" s="1"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G258" s="5"/>
+      <c r="I258" s="1"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>354</v>
+      </c>
+      <c r="E259" s="3">
+        <v>233</v>
+      </c>
+      <c r="G259" s="5"/>
+      <c r="I259" s="1"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G260" s="5"/>
+      <c r="I260" s="1"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I261" s="1"/>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
         <v>357</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B262" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="D262" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F256" s="11">
+      <c r="F262" s="11">
         <v>1739023853137</v>
       </c>
-      <c r="G256" s="3" t="s">
+      <c r="G262" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="H256" s="1" t="s">
+      <c r="H262" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="I256" s="1"/>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I257" s="1"/>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I258" s="1"/>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I259" s="1"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I260" s="1"/>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
-        <v>381</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F261" s="11">
-        <v>139602943319822</v>
-      </c>
-      <c r="G261" s="5">
-        <v>42100</v>
-      </c>
-      <c r="H261" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="I261" s="1"/>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I262" s="1"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I263" s="1"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
-        <v>387</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F264" s="11">
-        <v>696067597313468</v>
-      </c>
-      <c r="G264" s="5">
-        <v>42173</v>
-      </c>
-      <c r="H264" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I264" s="1"/>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -5622,25 +5619,22 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>429</v>
+        <v>381</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E267" s="3">
-        <v>203</v>
+        <v>351</v>
       </c>
       <c r="F267" s="11">
-        <v>98792821</v>
+        <v>139602943319822</v>
       </c>
       <c r="G267" s="5">
-        <v>42209</v>
+        <v>42100</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="I267" s="1"/>
     </row>
@@ -5651,57 +5645,57 @@
       <c r="I269" s="1"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>387</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F270" s="11">
+        <v>696067597313468</v>
+      </c>
+      <c r="G270" s="5">
+        <v>42173</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I270" s="1"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
-        <v>435</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E271" s="3">
-        <v>137</v>
-      </c>
-      <c r="F271" s="11">
-        <v>252541322550</v>
-      </c>
-      <c r="G271" s="5">
-        <v>42178</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I271" s="1"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I272" s="1"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>429</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E273" s="3">
+        <v>203</v>
+      </c>
+      <c r="F273" s="11">
+        <v>98792821</v>
+      </c>
+      <c r="G273" s="5">
+        <v>42209</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="I273" s="1"/>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
-        <v>493</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F274" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="G274" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H274" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I274" s="1"/>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -5711,6 +5705,27 @@
       <c r="I276" s="1"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>435</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E277" s="3">
+        <v>137</v>
+      </c>
+      <c r="F277" s="11">
+        <v>252541322550</v>
+      </c>
+      <c r="G277" s="5">
+        <v>42178</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I277" s="1"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -5721,16 +5736,16 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F280" s="11">
-        <v>35407281</v>
+        <v>301</v>
+      </c>
+      <c r="F280" s="16" t="s">
+        <v>341</v>
       </c>
       <c r="G280" s="5">
         <v>42069</v>
@@ -5750,30 +5765,30 @@
       <c r="I283" s="1"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
-        <v>504</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F284" s="11">
-        <v>694687</v>
-      </c>
-      <c r="G284" s="5">
-        <v>42209</v>
-      </c>
-      <c r="H284" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="I284" s="1"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I285" s="1"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>500</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F286" s="11">
+        <v>35407281</v>
+      </c>
+      <c r="G286" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I286" s="1"/>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -5787,25 +5802,22 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E290" s="3" t="s">
-        <v>319</v>
+        <v>403</v>
       </c>
       <c r="F290" s="11">
-        <v>939087315</v>
+        <v>694687</v>
       </c>
       <c r="G290" s="5">
-        <v>42171</v>
+        <v>42209</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="I290" s="1"/>
     </row>
@@ -5825,6 +5837,27 @@
       <c r="I295" s="1"/>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>516</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F296" s="11">
+        <v>939087315</v>
+      </c>
+      <c r="G296" s="5">
+        <v>42171</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="I296" s="1"/>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -6315,6 +6348,24 @@
     </row>
     <row r="459" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I459" s="1"/>
+    </row>
+    <row r="460" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I460" s="1"/>
+    </row>
+    <row r="461" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I461" s="1"/>
+    </row>
+    <row r="462" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I462" s="1"/>
+    </row>
+    <row r="463" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I463" s="1"/>
+    </row>
+    <row r="464" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I464" s="1"/>
+    </row>
+    <row r="465" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I465" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="413">
   <si>
     <t>Number</t>
   </si>
@@ -1244,6 +1244,15 @@
   </si>
   <si>
     <t>271, 421</t>
+  </si>
+  <si>
+    <t>Squarefree Numbers</t>
+  </si>
+  <si>
+    <t>mobius_sieve</t>
+  </si>
+  <si>
+    <t>~about 70 seconds</t>
   </si>
 </sst>
 </file>
@@ -1645,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J465"/>
+  <dimension ref="A1:J467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E229" sqref="E229"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4836,236 +4845,238 @@
       <c r="I183" s="1"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>193</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F184" s="11">
+        <v>684465067343069</v>
+      </c>
+      <c r="G184" s="5">
+        <v>42211</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="I184" s="1"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I185" s="1"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>197</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F186" s="15">
-        <v>1.710637717</v>
-      </c>
-      <c r="G186" s="5">
-        <v>42041</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I186" s="1"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I187" s="1"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>197</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F188" s="15">
+        <v>1.710637717</v>
+      </c>
+      <c r="G188" s="5">
+        <v>42041</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I188" s="1"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>202</v>
-      </c>
-      <c r="E189" s="3">
-        <v>144</v>
-      </c>
       <c r="I189" s="1"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>203</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E190" s="3">
-        <v>429</v>
-      </c>
-      <c r="F190" s="11">
-        <v>34029210557338</v>
-      </c>
-      <c r="G190" s="5">
-        <v>42205</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I190" s="1"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>204</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F191" s="11">
-        <v>2944730</v>
-      </c>
-      <c r="G191" s="5">
-        <v>41780</v>
+        <v>202</v>
+      </c>
+      <c r="E191" s="3">
+        <v>144</v>
       </c>
       <c r="I191" s="1"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>210</v>
+        <v>398</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E192" s="3">
+        <v>429</v>
       </c>
       <c r="F192" s="11">
-        <v>0.57314410000000005</v>
+        <v>34029210557338</v>
       </c>
       <c r="G192" s="5">
-        <v>41793</v>
+        <v>42205</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="I192" s="1"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G193" s="5"/>
+      <c r="A193" s="1">
+        <v>204</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F193" s="11">
+        <v>2944730</v>
+      </c>
+      <c r="G193" s="5">
+        <v>41780</v>
+      </c>
       <c r="I193" s="1"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
+        <v>205</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F194" s="11">
+        <v>0.57314410000000005</v>
+      </c>
+      <c r="G194" s="5">
+        <v>41793</v>
+      </c>
+      <c r="I194" s="1"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G195" s="5"/>
+      <c r="I195" s="1"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
         <v>206</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="D196" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F194" s="11">
+      <c r="F196" s="11">
         <v>1389019170</v>
       </c>
-      <c r="G194" s="5">
+      <c r="G196" s="5">
         <v>41779</v>
       </c>
-      <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
         <v>207</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D197" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F195" s="11">
+      <c r="F197" s="11">
         <v>44043947822</v>
       </c>
-      <c r="G195" s="5">
+      <c r="G197" s="5">
         <v>42130</v>
       </c>
-      <c r="H195" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I195" s="1"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G196" s="5"/>
-      <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H197" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I197" s="1"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>214</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E198" s="3">
-        <v>70</v>
-      </c>
-      <c r="F198" s="11">
-        <v>1677366278943</v>
-      </c>
-      <c r="G198" s="5">
-        <v>41798</v>
-      </c>
+      <c r="G198" s="5"/>
       <c r="I198" s="1"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>215</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F199" s="11">
-        <v>806844323190414</v>
-      </c>
-      <c r="G199" s="5">
-        <v>42041</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I199" s="1"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>329</v>
+        <v>214</v>
+      </c>
+      <c r="E200" s="3">
+        <v>70</v>
       </c>
       <c r="F200" s="11">
-        <v>5437849</v>
+        <v>1677366278943</v>
       </c>
       <c r="G200" s="5">
+        <v>41798</v>
+      </c>
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>215</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F201" s="11">
+        <v>806844323190414</v>
+      </c>
+      <c r="G201" s="5">
         <v>42041</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G201" s="5"/>
+      <c r="H201" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I201" s="1"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="F202" s="11">
-        <v>0</v>
+        <v>5437849</v>
       </c>
       <c r="G202" s="5">
         <v>42041</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="I202" s="1"/>
     </row>
@@ -5074,27 +5085,25 @@
       <c r="I203" s="1"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>218</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F204" s="11">
+        <v>0</v>
+      </c>
+      <c r="G204" s="5">
+        <v>42041</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I204" s="1"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>225</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F205" s="11">
-        <v>2009</v>
-      </c>
-      <c r="G205" s="5">
-        <v>41926</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G205" s="5"/>
       <c r="I205" s="1"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -5102,60 +5111,72 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
+        <v>225</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F207" s="11">
+        <v>2009</v>
+      </c>
+      <c r="G207" s="5">
+        <v>41926</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I207" s="1"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I208" s="1"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
         <v>227</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D209" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F207" s="11">
+      <c r="F209" s="11">
         <v>3780.618622</v>
       </c>
-      <c r="G207" s="5">
+      <c r="G209" s="5">
         <v>41801</v>
       </c>
-      <c r="I207" s="1"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G208" s="5"/>
-      <c r="I208" s="1"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G209" s="5"/>
       <c r="I209" s="1"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>231</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F210" s="11">
-        <v>7526965179680</v>
-      </c>
-      <c r="G210" s="5">
-        <v>42205</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G210" s="5"/>
       <c r="I210" s="1"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G211" s="5"/>
       <c r="I211" s="1"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>233</v>
-      </c>
-      <c r="E212" s="3">
-        <v>354</v>
+        <v>231</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F212" s="11">
+        <v>7526965179680</v>
+      </c>
+      <c r="G212" s="5">
+        <v>42205</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="I212" s="1"/>
     </row>
@@ -5163,91 +5184,79 @@
       <c r="I213" s="1"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>233</v>
+      </c>
+      <c r="E214" s="3">
+        <v>354</v>
+      </c>
       <c r="I214" s="1"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>243</v>
-      </c>
       <c r="I215" s="1"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I216" s="1"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>243</v>
+      </c>
       <c r="I217" s="1"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
         <v>248</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="D220" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E218" s="3">
+      <c r="E220" s="3">
         <v>72</v>
       </c>
-      <c r="F218" s="11">
+      <c r="F220" s="11">
         <v>23507044290</v>
       </c>
-      <c r="G218" s="5">
+      <c r="G220" s="5">
         <v>41798</v>
       </c>
-      <c r="H218" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I218" s="1"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G219" s="5"/>
-      <c r="I219" s="1"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G220" s="5"/>
+      <c r="H220" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I220" s="1"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>265</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F221" s="11">
-        <v>209110240768</v>
-      </c>
-      <c r="G221" s="5">
-        <v>42190</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G221" s="5"/>
       <c r="I221" s="1"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G222" s="5"/>
       <c r="I222" s="1"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F223" s="16" t="s">
-        <v>388</v>
+        <v>379</v>
+      </c>
+      <c r="F223" s="11">
+        <v>209110240768</v>
       </c>
       <c r="G223" s="5">
-        <v>42200</v>
+        <v>42190</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>320</v>
@@ -5258,67 +5267,73 @@
       <c r="I224" s="1"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>267</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F225" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="G225" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I225" s="1"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I226" s="1"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
         <v>271</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="D229" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E227" s="3" t="s">
+      <c r="E229" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F227" s="16" t="s">
+      <c r="F229" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="G227" s="5">
+      <c r="G229" s="5">
         <v>41897</v>
       </c>
-      <c r="H227" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I227" s="1"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
+      <c r="H229" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
         <v>272</v>
       </c>
-      <c r="E228" s="3" t="s">
+      <c r="E230" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F228" s="16"/>
-      <c r="G228" s="5"/>
-      <c r="I228" s="1"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F229" s="16"/>
-      <c r="G229" s="5"/>
-      <c r="I229" s="1"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F230" s="16"/>
+      <c r="G230" s="5"/>
       <c r="I230" s="1"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
-        <v>301</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G231" s="5">
-        <v>41746</v>
-      </c>
+      <c r="F231" s="16"/>
+      <c r="G231" s="5"/>
       <c r="I231" s="1"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -5326,16 +5341,16 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="G233" s="5">
-        <v>41784</v>
+        <v>41746</v>
       </c>
       <c r="I233" s="1"/>
     </row>
@@ -5344,10 +5359,16 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>305</v>
-      </c>
-      <c r="E235" s="3">
-        <v>40</v>
+        <v>303</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G235" s="5">
+        <v>41784</v>
       </c>
       <c r="I235" s="1"/>
     </row>
@@ -5355,56 +5376,40 @@
       <c r="I236" s="1"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>305</v>
+      </c>
+      <c r="E237" s="3">
+        <v>40</v>
+      </c>
       <c r="I237" s="1"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
         <v>308</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B240" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F238" s="11">
+      <c r="F240" s="11">
         <v>1539669807660920</v>
       </c>
-      <c r="G238" s="5">
+      <c r="G240" s="5">
         <v>41941</v>
       </c>
-      <c r="H238" s="1" t="s">
+      <c r="H240" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I238" s="1"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G239" s="5"/>
-      <c r="I239" s="1"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G240" s="5"/>
       <c r="I240" s="1"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>315</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E241" s="3">
-        <v>159</v>
-      </c>
-      <c r="F241" s="11">
-        <v>13625242</v>
-      </c>
-      <c r="G241" s="5">
-        <v>42161</v>
-      </c>
-      <c r="H241" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G241" s="5"/>
       <c r="I241" s="1"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -5412,168 +5417,182 @@
       <c r="I242" s="1"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G243" s="5"/>
+      <c r="A243" s="1">
+        <v>315</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E243" s="3">
+        <v>159</v>
+      </c>
+      <c r="F243" s="11">
+        <v>13625242</v>
+      </c>
+      <c r="G243" s="5">
+        <v>42161</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I243" s="1"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>323</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F244" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="G244" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H244" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G244" s="5"/>
       <c r="I244" s="1"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F245" s="16"/>
       <c r="G245" s="5"/>
       <c r="I245" s="1"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G246" s="5"/>
+      <c r="A246" s="1">
+        <v>323</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F246" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G246" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I246" s="1"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F247" s="16"/>
+      <c r="G247" s="5"/>
       <c r="I247" s="1"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <v>329</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F248" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="G248" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H248" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G248" s="5"/>
       <c r="I248" s="1"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I249" s="1"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>329</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F250" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="G250" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I250" s="1"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <v>336</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F251" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="G251" s="5">
-        <v>42201</v>
-      </c>
-      <c r="H251" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="I251" s="1"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I252" s="1"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>336</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F253" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="G253" s="5">
+        <v>42201</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="I253" s="1"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
-        <v>345</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F254" s="11">
-        <v>13938</v>
-      </c>
-      <c r="G254" s="5">
-        <v>42010</v>
-      </c>
-      <c r="H254" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I254" s="1"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>346</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F255" s="11">
-        <v>3.3610879768925901E+17</v>
-      </c>
-      <c r="G255" s="5">
-        <v>42200</v>
-      </c>
-      <c r="H255" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I255" s="1"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
+        <v>345</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F256" s="11">
+        <v>13938</v>
+      </c>
+      <c r="G256" s="5">
+        <v>42010</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I256" s="1"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>346</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F257" s="11">
+        <v>3.3610879768925901E+17</v>
+      </c>
+      <c r="G257" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I257" s="1"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
         <v>347</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B258" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="D258" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F256" s="11">
+      <c r="F258" s="11">
         <v>11109800204052</v>
       </c>
-      <c r="G256" s="5">
+      <c r="G258" s="5">
         <v>42200</v>
       </c>
-      <c r="H256" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I256" s="1"/>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G257" s="5"/>
-      <c r="I257" s="1"/>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G258" s="5"/>
+      <c r="H258" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I258" s="1"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>354</v>
-      </c>
-      <c r="E259" s="3">
-        <v>233</v>
-      </c>
       <c r="G259" s="5"/>
       <c r="I259" s="1"/>
     </row>
@@ -5582,33 +5601,41 @@
       <c r="I260" s="1"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>354</v>
+      </c>
+      <c r="E261" s="3">
+        <v>233</v>
+      </c>
+      <c r="G261" s="5"/>
       <c r="I261" s="1"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <v>357</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F262" s="11">
-        <v>1739023853137</v>
-      </c>
-      <c r="G262" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H262" s="1" t="s">
-        <v>324</v>
-      </c>
+      <c r="G262" s="5"/>
       <c r="I262" s="1"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I263" s="1"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>357</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F264" s="11">
+        <v>1739023853137</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="I264" s="1"/>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -5618,147 +5645,147 @@
       <c r="I266" s="1"/>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
-        <v>381</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F267" s="11">
-        <v>139602943319822</v>
-      </c>
-      <c r="G267" s="5">
-        <v>42100</v>
-      </c>
-      <c r="H267" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="I267" s="1"/>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I268" s="1"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>381</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F269" s="11">
+        <v>139602943319822</v>
+      </c>
+      <c r="G269" s="5">
+        <v>42100</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="I269" s="1"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <v>387</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F270" s="11">
-        <v>696067597313468</v>
-      </c>
-      <c r="G270" s="5">
-        <v>42173</v>
-      </c>
-      <c r="H270" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I270" s="1"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I271" s="1"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>387</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F272" s="11">
+        <v>696067597313468</v>
+      </c>
+      <c r="G272" s="5">
+        <v>42173</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I272" s="1"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <v>429</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E273" s="3">
-        <v>203</v>
-      </c>
-      <c r="F273" s="11">
-        <v>98792821</v>
-      </c>
-      <c r="G273" s="5">
-        <v>42209</v>
-      </c>
-      <c r="H273" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="I273" s="1"/>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I274" s="1"/>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>429</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E275" s="3">
+        <v>203</v>
+      </c>
+      <c r="F275" s="11">
+        <v>98792821</v>
+      </c>
+      <c r="G275" s="5">
+        <v>42209</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="I275" s="1"/>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I276" s="1"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
-        <v>435</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E277" s="3">
-        <v>137</v>
-      </c>
-      <c r="F277" s="11">
-        <v>252541322550</v>
-      </c>
-      <c r="G277" s="5">
-        <v>42178</v>
-      </c>
-      <c r="H277" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I277" s="1"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I278" s="1"/>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>435</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E279" s="3">
+        <v>137</v>
+      </c>
+      <c r="F279" s="11">
+        <v>252541322550</v>
+      </c>
+      <c r="G279" s="5">
+        <v>42178</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I279" s="1"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
-        <v>493</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F280" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="G280" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H280" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I280" s="1"/>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I281" s="1"/>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>493</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F282" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G282" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I282" s="1"/>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -5771,60 +5798,60 @@
       <c r="I285" s="1"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
-        <v>500</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F286" s="11">
-        <v>35407281</v>
-      </c>
-      <c r="G286" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H286" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I286" s="1"/>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I287" s="1"/>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>500</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F288" s="11">
+        <v>35407281</v>
+      </c>
+      <c r="G288" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I288" s="1"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I289" s="1"/>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
-        <v>504</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F290" s="11">
-        <v>694687</v>
-      </c>
-      <c r="G290" s="5">
-        <v>42209</v>
-      </c>
-      <c r="H290" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="I290" s="1"/>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I291" s="1"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>504</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F292" s="11">
+        <v>694687</v>
+      </c>
+      <c r="G292" s="5">
+        <v>42209</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="I292" s="1"/>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -5837,33 +5864,33 @@
       <c r="I295" s="1"/>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A296" s="1">
-        <v>516</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D296" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E296" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F296" s="11">
-        <v>939087315</v>
-      </c>
-      <c r="G296" s="5">
-        <v>42171</v>
-      </c>
-      <c r="H296" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="I296" s="1"/>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I297" s="1"/>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>516</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F298" s="11">
+        <v>939087315</v>
+      </c>
+      <c r="G298" s="5">
+        <v>42171</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="I298" s="1"/>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -6366,6 +6393,12 @@
     </row>
     <row r="465" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I465" s="1"/>
+    </row>
+    <row r="466" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I466" s="1"/>
+    </row>
+    <row r="467" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I467" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="415">
   <si>
     <t>Number</t>
   </si>
@@ -1253,6 +1253,12 @@
   </si>
   <si>
     <t>~about 70 seconds</t>
+  </si>
+  <si>
+    <t>An Arithmetic Geometric sequence</t>
+  </si>
+  <si>
+    <t>Newton_Raphson</t>
   </si>
 </sst>
 </file>
@@ -1654,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J467"/>
+  <dimension ref="A1:J469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5196,91 +5202,93 @@
       <c r="I215" s="1"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I216" s="1"/>
+      <c r="A216" s="1">
+        <v>235</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F216" s="11">
+        <v>1.0023221086330001</v>
+      </c>
+      <c r="G216" s="5">
+        <v>42212</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <v>243</v>
-      </c>
       <c r="I217" s="1"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I218" s="1"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>243</v>
+      </c>
       <c r="I219" s="1"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
         <v>248</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="D222" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E220" s="3">
+      <c r="E222" s="3">
         <v>72</v>
       </c>
-      <c r="F220" s="11">
+      <c r="F222" s="11">
         <v>23507044290</v>
       </c>
-      <c r="G220" s="5">
+      <c r="G222" s="5">
         <v>41798</v>
       </c>
-      <c r="H220" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I220" s="1"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G221" s="5"/>
-      <c r="I221" s="1"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G222" s="5"/>
+      <c r="H222" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I222" s="1"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <v>265</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F223" s="11">
-        <v>209110240768</v>
-      </c>
-      <c r="G223" s="5">
-        <v>42190</v>
-      </c>
-      <c r="H223" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G223" s="5"/>
       <c r="I223" s="1"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G224" s="5"/>
       <c r="I224" s="1"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F225" s="16" t="s">
-        <v>388</v>
+        <v>379</v>
+      </c>
+      <c r="F225" s="11">
+        <v>209110240768</v>
       </c>
       <c r="G225" s="5">
-        <v>42200</v>
+        <v>42190</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>320</v>
@@ -5291,67 +5299,73 @@
       <c r="I226" s="1"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>267</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F227" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="G227" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I227" s="1"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I228" s="1"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I230" s="1"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
         <v>271</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="D231" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E229" s="3" t="s">
+      <c r="E231" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F229" s="16" t="s">
+      <c r="F231" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="G229" s="5">
+      <c r="G231" s="5">
         <v>41897</v>
       </c>
-      <c r="H229" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I229" s="1"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
+      <c r="H231" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
         <v>272</v>
       </c>
-      <c r="E230" s="3" t="s">
+      <c r="E232" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F230" s="16"/>
-      <c r="G230" s="5"/>
-      <c r="I230" s="1"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F231" s="16"/>
-      <c r="G231" s="5"/>
-      <c r="I231" s="1"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F232" s="16"/>
+      <c r="G232" s="5"/>
       <c r="I232" s="1"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
-        <v>301</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G233" s="5">
-        <v>41746</v>
-      </c>
+      <c r="F233" s="16"/>
+      <c r="G233" s="5"/>
       <c r="I233" s="1"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -5359,16 +5373,16 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="G235" s="5">
-        <v>41784</v>
+        <v>41746</v>
       </c>
       <c r="I235" s="1"/>
     </row>
@@ -5377,10 +5391,16 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>305</v>
-      </c>
-      <c r="E237" s="3">
-        <v>40</v>
+        <v>303</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G237" s="5">
+        <v>41784</v>
       </c>
       <c r="I237" s="1"/>
     </row>
@@ -5388,56 +5408,40 @@
       <c r="I238" s="1"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>305</v>
+      </c>
+      <c r="E239" s="3">
+        <v>40</v>
+      </c>
       <c r="I239" s="1"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
         <v>308</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B242" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F240" s="11">
+      <c r="F242" s="11">
         <v>1539669807660920</v>
       </c>
-      <c r="G240" s="5">
+      <c r="G242" s="5">
         <v>41941</v>
       </c>
-      <c r="H240" s="1" t="s">
+      <c r="H242" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I240" s="1"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G241" s="5"/>
-      <c r="I241" s="1"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G242" s="5"/>
       <c r="I242" s="1"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <v>315</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E243" s="3">
-        <v>159</v>
-      </c>
-      <c r="F243" s="11">
-        <v>13625242</v>
-      </c>
-      <c r="G243" s="5">
-        <v>42161</v>
-      </c>
-      <c r="H243" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G243" s="5"/>
       <c r="I243" s="1"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -5445,168 +5449,182 @@
       <c r="I244" s="1"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G245" s="5"/>
+      <c r="A245" s="1">
+        <v>315</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E245" s="3">
+        <v>159</v>
+      </c>
+      <c r="F245" s="11">
+        <v>13625242</v>
+      </c>
+      <c r="G245" s="5">
+        <v>42161</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I245" s="1"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>323</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F246" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="G246" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H246" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G246" s="5"/>
       <c r="I246" s="1"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F247" s="16"/>
       <c r="G247" s="5"/>
       <c r="I247" s="1"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G248" s="5"/>
+      <c r="A248" s="1">
+        <v>323</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F248" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G248" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I248" s="1"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F249" s="16"/>
+      <c r="G249" s="5"/>
       <c r="I249" s="1"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>329</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F250" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="G250" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H250" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G250" s="5"/>
       <c r="I250" s="1"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I251" s="1"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>329</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F252" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="G252" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I252" s="1"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
-        <v>336</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F253" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="G253" s="5">
-        <v>42201</v>
-      </c>
-      <c r="H253" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="I253" s="1"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I254" s="1"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>336</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F255" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="G255" s="5">
+        <v>42201</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="I255" s="1"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
-        <v>345</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F256" s="11">
-        <v>13938</v>
-      </c>
-      <c r="G256" s="5">
-        <v>42010</v>
-      </c>
-      <c r="H256" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I256" s="1"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <v>346</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F257" s="11">
-        <v>3.3610879768925901E+17</v>
-      </c>
-      <c r="G257" s="5">
-        <v>42200</v>
-      </c>
-      <c r="H257" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I257" s="1"/>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
+        <v>345</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F258" s="11">
+        <v>13938</v>
+      </c>
+      <c r="G258" s="5">
+        <v>42010</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I258" s="1"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>346</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F259" s="11">
+        <v>3.3610879768925901E+17</v>
+      </c>
+      <c r="G259" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I259" s="1"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
         <v>347</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B260" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="D260" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F258" s="11">
+      <c r="F260" s="11">
         <v>11109800204052</v>
       </c>
-      <c r="G258" s="5">
+      <c r="G260" s="5">
         <v>42200</v>
       </c>
-      <c r="H258" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I258" s="1"/>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G259" s="5"/>
-      <c r="I259" s="1"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G260" s="5"/>
+      <c r="H260" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I260" s="1"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
-        <v>354</v>
-      </c>
-      <c r="E261" s="3">
-        <v>233</v>
-      </c>
       <c r="G261" s="5"/>
       <c r="I261" s="1"/>
     </row>
@@ -5615,33 +5633,41 @@
       <c r="I262" s="1"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>354</v>
+      </c>
+      <c r="E263" s="3">
+        <v>233</v>
+      </c>
+      <c r="G263" s="5"/>
       <c r="I263" s="1"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
-        <v>357</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F264" s="11">
-        <v>1739023853137</v>
-      </c>
-      <c r="G264" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H264" s="1" t="s">
-        <v>324</v>
-      </c>
+      <c r="G264" s="5"/>
       <c r="I264" s="1"/>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I265" s="1"/>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>357</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F266" s="11">
+        <v>1739023853137</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="I266" s="1"/>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -5651,147 +5677,147 @@
       <c r="I268" s="1"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
-        <v>381</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F269" s="11">
-        <v>139602943319822</v>
-      </c>
-      <c r="G269" s="5">
-        <v>42100</v>
-      </c>
-      <c r="H269" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="I269" s="1"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I270" s="1"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>381</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F271" s="11">
+        <v>139602943319822</v>
+      </c>
+      <c r="G271" s="5">
+        <v>42100</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="I271" s="1"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
-        <v>387</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F272" s="11">
-        <v>696067597313468</v>
-      </c>
-      <c r="G272" s="5">
-        <v>42173</v>
-      </c>
-      <c r="H272" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I272" s="1"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I273" s="1"/>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>387</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F274" s="11">
+        <v>696067597313468</v>
+      </c>
+      <c r="G274" s="5">
+        <v>42173</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I274" s="1"/>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
-        <v>429</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E275" s="3">
-        <v>203</v>
-      </c>
-      <c r="F275" s="11">
-        <v>98792821</v>
-      </c>
-      <c r="G275" s="5">
-        <v>42209</v>
-      </c>
-      <c r="H275" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="I275" s="1"/>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I276" s="1"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>429</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E277" s="3">
+        <v>203</v>
+      </c>
+      <c r="F277" s="11">
+        <v>98792821</v>
+      </c>
+      <c r="G277" s="5">
+        <v>42209</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="I277" s="1"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I278" s="1"/>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
-        <v>435</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E279" s="3">
-        <v>137</v>
-      </c>
-      <c r="F279" s="11">
-        <v>252541322550</v>
-      </c>
-      <c r="G279" s="5">
-        <v>42178</v>
-      </c>
-      <c r="H279" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I279" s="1"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I280" s="1"/>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>435</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E281" s="3">
+        <v>137</v>
+      </c>
+      <c r="F281" s="11">
+        <v>252541322550</v>
+      </c>
+      <c r="G281" s="5">
+        <v>42178</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I281" s="1"/>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
-        <v>493</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F282" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="G282" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H282" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I282" s="1"/>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I283" s="1"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>493</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F284" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G284" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I284" s="1"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -5804,60 +5830,60 @@
       <c r="I287" s="1"/>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
-        <v>500</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F288" s="11">
-        <v>35407281</v>
-      </c>
-      <c r="G288" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H288" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I288" s="1"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I289" s="1"/>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>500</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F290" s="11">
+        <v>35407281</v>
+      </c>
+      <c r="G290" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I290" s="1"/>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I291" s="1"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A292" s="1">
-        <v>504</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F292" s="11">
-        <v>694687</v>
-      </c>
-      <c r="G292" s="5">
-        <v>42209</v>
-      </c>
-      <c r="H292" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="I292" s="1"/>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I293" s="1"/>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>504</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F294" s="11">
+        <v>694687</v>
+      </c>
+      <c r="G294" s="5">
+        <v>42209</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="I294" s="1"/>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -5870,33 +5896,33 @@
       <c r="I297" s="1"/>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
-        <v>516</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E298" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F298" s="11">
-        <v>939087315</v>
-      </c>
-      <c r="G298" s="5">
-        <v>42171</v>
-      </c>
-      <c r="H298" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="I298" s="1"/>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I299" s="1"/>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>516</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F300" s="11">
+        <v>939087315</v>
+      </c>
+      <c r="G300" s="5">
+        <v>42171</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="I300" s="1"/>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -6399,6 +6425,12 @@
     </row>
     <row r="467" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I467" s="1"/>
+    </row>
+    <row r="468" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I468" s="1"/>
+    </row>
+    <row r="469" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I469" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="417">
   <si>
     <t>Number</t>
   </si>
@@ -1259,6 +1259,12 @@
   </si>
   <si>
     <t>Newton_Raphson</t>
+  </si>
+  <si>
+    <t>Clock sequence</t>
+  </si>
+  <si>
+    <t>modular_multiplicative_inverse; gen_clock_sequence</t>
   </si>
 </sst>
 </file>
@@ -1662,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D253" sqref="D253"/>
+    <sheetView tabSelected="1" topLeftCell="A264" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A296" sqref="A296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5890,6 +5896,24 @@
       <c r="I295" s="1"/>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>506</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F296" s="11">
+        <v>18934502</v>
+      </c>
+      <c r="G296" s="5">
+        <v>42215</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I296" s="1"/>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="419">
   <si>
     <t>Number</t>
   </si>
@@ -1265,6 +1265,12 @@
   </si>
   <si>
     <t>modular_multiplicative_inverse; gen_clock_sequence</t>
+  </si>
+  <si>
+    <t>abc-hits</t>
+  </si>
+  <si>
+    <t>gcd; radicals_sieve</t>
   </si>
 </sst>
 </file>
@@ -1668,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A296" sqref="A296"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3990,7 +3996,24 @@
       <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G128" s="5"/>
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F128" s="11">
+        <v>18407904</v>
+      </c>
+      <c r="G128" s="5">
+        <v>42218</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="421">
   <si>
     <t>Number</t>
   </si>
@@ -1271,6 +1271,12 @@
   </si>
   <si>
     <t>gcd; radicals_sieve</t>
+  </si>
+  <si>
+    <t>5a411d7b</t>
+  </si>
+  <si>
+    <t>modular_multiplicative_inverse; to_base</t>
   </si>
 </sst>
 </file>
@@ -1672,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J469"/>
+  <dimension ref="A1:J474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4623,99 +4629,85 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
+        <v>168</v>
+      </c>
+      <c r="E168" s="3">
+        <v>284</v>
+      </c>
+      <c r="G168" s="5"/>
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G169" s="5"/>
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>173</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E170" s="3">
         <v>174</v>
       </c>
-      <c r="F168" s="11">
+      <c r="F170" s="11">
         <v>1572729</v>
       </c>
-      <c r="G168" s="5">
+      <c r="G170" s="5">
         <v>42130</v>
       </c>
-      <c r="H168" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
+      <c r="H170" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>174</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E171" s="3">
         <v>173</v>
       </c>
-      <c r="F169" s="11">
+      <c r="F171" s="11">
         <v>209566</v>
       </c>
-      <c r="G169" s="5">
+      <c r="G171" s="5">
         <v>42130</v>
       </c>
-      <c r="H169" s="1" t="s">
+      <c r="H171" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G170" s="5"/>
-      <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I171" s="1"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>179</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F172" s="11">
-        <v>986262</v>
-      </c>
-      <c r="G172" s="5">
-        <v>41793</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>345</v>
-      </c>
+      <c r="G172" s="5"/>
       <c r="I172" s="1"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G173" s="5"/>
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E174" s="3">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="F174" s="11">
-        <v>48861552</v>
+        <v>986262</v>
       </c>
       <c r="G174" s="5">
-        <v>41891</v>
+        <v>41793</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="I174" s="1"/>
     </row>
@@ -4725,154 +4717,137 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="E176" s="3">
+        <v>190</v>
       </c>
       <c r="F176" s="11">
-        <v>4640261571849530</v>
+        <v>48861552</v>
       </c>
       <c r="G176" s="5">
         <v>41891</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="I176" s="1"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>186</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F177" s="11">
-        <v>2325629</v>
-      </c>
-      <c r="G177" s="5">
-        <v>41890</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G177" s="5"/>
       <c r="I177" s="1"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="F178" s="11">
-        <v>17427258</v>
+        <v>4640261571849530</v>
       </c>
       <c r="G178" s="5">
-        <v>41889</v>
+        <v>41891</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>320</v>
+        <v>261</v>
       </c>
       <c r="I178" s="1"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E179" s="3">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="F179" s="11">
-        <v>95962097</v>
+        <v>2325629</v>
       </c>
       <c r="G179" s="5">
-        <v>41793</v>
+        <v>41890</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="I179" s="1"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>187</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F180" s="11">
+        <v>17427258</v>
+      </c>
+      <c r="G180" s="5">
+        <v>41889</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I180" s="1"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="E181" s="3">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="F181" s="11">
-        <v>371048281</v>
+        <v>95962097</v>
       </c>
       <c r="G181" s="5">
-        <v>41891</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>320</v>
+        <v>41793</v>
       </c>
       <c r="I181" s="1"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>191</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F182" s="11">
-        <v>1918080160</v>
-      </c>
-      <c r="G182" s="5">
-        <v>41894</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I182" s="1"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="E183" s="3">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="F183" s="11">
-        <v>5.7060635927998304E+16</v>
+        <v>371048281</v>
       </c>
       <c r="G183" s="5">
-        <v>41904</v>
+        <v>41891</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>320</v>
@@ -4881,259 +4856,282 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
+        <v>191</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F184" s="11">
+        <v>1918080160</v>
+      </c>
+      <c r="G184" s="5">
+        <v>41894</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>192</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E185" s="3">
+        <v>64</v>
+      </c>
+      <c r="F185" s="11">
+        <v>5.7060635927998304E+16</v>
+      </c>
+      <c r="G185" s="5">
+        <v>41904</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>193</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D186" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F184" s="11">
+      <c r="F186" s="11">
         <v>684465067343069</v>
       </c>
-      <c r="G184" s="5">
+      <c r="G186" s="5">
         <v>42211</v>
       </c>
-      <c r="H184" s="1" t="s">
+      <c r="H186" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="I184" s="1"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I185" s="1"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I186" s="1"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I187" s="1"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>197</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F188" s="15">
-        <v>1.710637717</v>
-      </c>
-      <c r="G188" s="5">
-        <v>42041</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I188" s="1"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I189" s="1"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>197</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F190" s="15">
+        <v>1.710637717</v>
+      </c>
+      <c r="G190" s="5">
+        <v>42041</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I190" s="1"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>202</v>
-      </c>
-      <c r="E191" s="3">
-        <v>144</v>
-      </c>
       <c r="I191" s="1"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>203</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E192" s="3">
-        <v>429</v>
-      </c>
-      <c r="F192" s="11">
-        <v>34029210557338</v>
-      </c>
-      <c r="G192" s="5">
-        <v>42205</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I192" s="1"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>204</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F193" s="11">
-        <v>2944730</v>
-      </c>
-      <c r="G193" s="5">
-        <v>41780</v>
+        <v>202</v>
+      </c>
+      <c r="E193" s="3">
+        <v>144</v>
       </c>
       <c r="I193" s="1"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>210</v>
+        <v>398</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E194" s="3">
+        <v>429</v>
       </c>
       <c r="F194" s="11">
-        <v>0.57314410000000005</v>
+        <v>34029210557338</v>
       </c>
       <c r="G194" s="5">
-        <v>41793</v>
+        <v>42205</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="I194" s="1"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G195" s="5"/>
+      <c r="A195" s="1">
+        <v>204</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F195" s="11">
+        <v>2944730</v>
+      </c>
+      <c r="G195" s="5">
+        <v>41780</v>
+      </c>
       <c r="I195" s="1"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
+        <v>205</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F196" s="11">
+        <v>0.57314410000000005</v>
+      </c>
+      <c r="G196" s="5">
+        <v>41793</v>
+      </c>
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G197" s="5"/>
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
         <v>206</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="D198" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F196" s="11">
+      <c r="F198" s="11">
         <v>1389019170</v>
       </c>
-      <c r="G196" s="5">
+      <c r="G198" s="5">
         <v>41779</v>
       </c>
-      <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
         <v>207</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D199" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F197" s="11">
+      <c r="F199" s="11">
         <v>44043947822</v>
       </c>
-      <c r="G197" s="5">
+      <c r="G199" s="5">
         <v>42130</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G198" s="5"/>
-      <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H199" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I199" s="1"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>214</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E200" s="3">
-        <v>70</v>
-      </c>
-      <c r="F200" s="11">
-        <v>1677366278943</v>
-      </c>
-      <c r="G200" s="5">
-        <v>41798</v>
-      </c>
+      <c r="G200" s="5"/>
       <c r="I200" s="1"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>215</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F201" s="11">
-        <v>806844323190414</v>
-      </c>
-      <c r="G201" s="5">
-        <v>42041</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I201" s="1"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>329</v>
+        <v>214</v>
+      </c>
+      <c r="E202" s="3">
+        <v>70</v>
       </c>
       <c r="F202" s="11">
-        <v>5437849</v>
+        <v>1677366278943</v>
       </c>
       <c r="G202" s="5">
+        <v>41798</v>
+      </c>
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>215</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F203" s="11">
+        <v>806844323190414</v>
+      </c>
+      <c r="G203" s="5">
         <v>42041</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="I202" s="1"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G203" s="5"/>
+      <c r="H203" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I203" s="1"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="F204" s="11">
-        <v>0</v>
+        <v>5437849</v>
       </c>
       <c r="G204" s="5">
         <v>42041</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="I204" s="1"/>
     </row>
@@ -5142,27 +5140,25 @@
       <c r="I205" s="1"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>218</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F206" s="11">
+        <v>0</v>
+      </c>
+      <c r="G206" s="5">
+        <v>42041</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I206" s="1"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>225</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F207" s="11">
-        <v>2009</v>
-      </c>
-      <c r="G207" s="5">
-        <v>41926</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G207" s="5"/>
       <c r="I207" s="1"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -5170,60 +5166,72 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
+        <v>225</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F209" s="11">
+        <v>2009</v>
+      </c>
+      <c r="G209" s="5">
+        <v>41926</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I209" s="1"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I210" s="1"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
         <v>227</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D209" s="3" t="s">
+      <c r="D211" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F209" s="11">
+      <c r="F211" s="11">
         <v>3780.618622</v>
       </c>
-      <c r="G209" s="5">
+      <c r="G211" s="5">
         <v>41801</v>
       </c>
-      <c r="I209" s="1"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G210" s="5"/>
-      <c r="I210" s="1"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G211" s="5"/>
       <c r="I211" s="1"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>231</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F212" s="11">
-        <v>7526965179680</v>
-      </c>
-      <c r="G212" s="5">
-        <v>42205</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G212" s="5"/>
       <c r="I212" s="1"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G213" s="5"/>
       <c r="I213" s="1"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>233</v>
-      </c>
-      <c r="E214" s="3">
-        <v>354</v>
+        <v>231</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F214" s="11">
+        <v>7526965179680</v>
+      </c>
+      <c r="G214" s="5">
+        <v>42205</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="I214" s="1"/>
     </row>
@@ -5232,116 +5240,104 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>235</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="F216" s="11">
-        <v>1.0023221086330001</v>
-      </c>
-      <c r="G216" s="5">
-        <v>42212</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I216" s="1" t="s">
-        <v>320</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="E216" s="3">
+        <v>354</v>
+      </c>
+      <c r="I216" s="1"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I217" s="1"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I218" s="1"/>
+      <c r="A218" s="1">
+        <v>235</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F218" s="11">
+        <v>1.0023221086330001</v>
+      </c>
+      <c r="G218" s="5">
+        <v>42212</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <v>243</v>
-      </c>
       <c r="I219" s="1"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I220" s="1"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>243</v>
+      </c>
       <c r="I221" s="1"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
+      <c r="I222" s="1"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
         <v>248</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D222" s="3" t="s">
+      <c r="D224" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E222" s="3">
+      <c r="E224" s="3">
         <v>72</v>
       </c>
-      <c r="F222" s="11">
+      <c r="F224" s="11">
         <v>23507044290</v>
       </c>
-      <c r="G222" s="5">
+      <c r="G224" s="5">
         <v>41798</v>
       </c>
-      <c r="H222" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I222" s="1"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G223" s="5"/>
-      <c r="I223" s="1"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G224" s="5"/>
+      <c r="H224" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I224" s="1"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>265</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F225" s="11">
-        <v>209110240768</v>
-      </c>
-      <c r="G225" s="5">
-        <v>42190</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G225" s="5"/>
       <c r="I225" s="1"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G226" s="5"/>
       <c r="I226" s="1"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F227" s="16" t="s">
-        <v>388</v>
+        <v>379</v>
+      </c>
+      <c r="F227" s="11">
+        <v>209110240768</v>
       </c>
       <c r="G227" s="5">
-        <v>42200</v>
+        <v>42190</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>320</v>
@@ -5352,100 +5348,125 @@
       <c r="I228" s="1"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>267</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F229" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="G229" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I229" s="1"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I230" s="1"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I232" s="1"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
         <v>271</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="D233" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E231" s="3" t="s">
+      <c r="E233" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F231" s="16" t="s">
+      <c r="F233" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="G231" s="5">
+      <c r="G233" s="5">
         <v>41897</v>
       </c>
-      <c r="H231" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I231" s="1"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
+      <c r="H233" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
         <v>272</v>
       </c>
-      <c r="E232" s="3" t="s">
+      <c r="E234" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F232" s="16"/>
-      <c r="G232" s="5"/>
-      <c r="I232" s="1"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F233" s="16"/>
-      <c r="G233" s="5"/>
-      <c r="I233" s="1"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F234" s="16"/>
+      <c r="G234" s="5"/>
       <c r="I234" s="1"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <v>301</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G235" s="5">
-        <v>41746</v>
-      </c>
+      <c r="F235" s="16"/>
+      <c r="G235" s="5"/>
       <c r="I235" s="1"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F236" s="16"/>
+      <c r="G236" s="5"/>
       <c r="I236" s="1"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>187</v>
+        <v>386</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>188</v>
+        <v>420</v>
+      </c>
+      <c r="E237" s="3">
+        <v>168</v>
+      </c>
+      <c r="F237" s="16" t="s">
+        <v>419</v>
       </c>
       <c r="G237" s="5">
-        <v>41784</v>
+        <v>42225</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="I237" s="1"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F238" s="16"/>
+      <c r="G238" s="5"/>
       <c r="I238" s="1"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
-        <v>305</v>
-      </c>
-      <c r="E239" s="3">
-        <v>40</v>
-      </c>
       <c r="I239" s="1"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>301</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G240" s="5">
+        <v>41746</v>
+      </c>
       <c r="I240" s="1"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -5453,259 +5474,259 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
+        <v>303</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G242" s="5">
+        <v>41784</v>
+      </c>
+      <c r="I242" s="1"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>305</v>
+      </c>
+      <c r="E244" s="3">
+        <v>40</v>
+      </c>
+      <c r="I244" s="1"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I245" s="1"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I246" s="1"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
         <v>308</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B247" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F242" s="11">
+      <c r="F247" s="11">
         <v>1539669807660920</v>
       </c>
-      <c r="G242" s="5">
+      <c r="G247" s="5">
         <v>41941</v>
       </c>
-      <c r="H242" s="1" t="s">
+      <c r="H247" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I242" s="1"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G243" s="5"/>
-      <c r="I243" s="1"/>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G244" s="5"/>
-      <c r="I244" s="1"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>315</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E245" s="3">
-        <v>159</v>
-      </c>
-      <c r="F245" s="11">
-        <v>13625242</v>
-      </c>
-      <c r="G245" s="5">
-        <v>42161</v>
-      </c>
-      <c r="H245" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I245" s="1"/>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G246" s="5"/>
-      <c r="I246" s="1"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G247" s="5"/>
       <c r="I247" s="1"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <v>323</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F248" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="G248" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H248" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G248" s="5"/>
       <c r="I248" s="1"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F249" s="16"/>
       <c r="G249" s="5"/>
       <c r="I249" s="1"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G250" s="5"/>
+      <c r="A250" s="1">
+        <v>315</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E250" s="3">
+        <v>159</v>
+      </c>
+      <c r="F250" s="11">
+        <v>13625242</v>
+      </c>
+      <c r="G250" s="5">
+        <v>42161</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I250" s="1"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G251" s="5"/>
       <c r="I251" s="1"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <v>329</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D252" s="3" t="s">
+      <c r="G252" s="5"/>
+      <c r="I252" s="1"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
         <v>323</v>
       </c>
-      <c r="F252" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="G252" s="5">
+      <c r="B253" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F253" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G253" s="5">
         <v>42069</v>
       </c>
-      <c r="H252" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I252" s="1"/>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H253" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I253" s="1"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F254" s="16"/>
+      <c r="G254" s="5"/>
       <c r="I254" s="1"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>336</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F255" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="G255" s="5">
-        <v>42201</v>
-      </c>
-      <c r="H255" s="1" t="s">
-        <v>396</v>
-      </c>
+      <c r="G255" s="5"/>
       <c r="I255" s="1"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I256" s="1"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>329</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F257" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="G257" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I257" s="1"/>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>345</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F258" s="11">
-        <v>13938</v>
-      </c>
-      <c r="G258" s="5">
-        <v>42010</v>
-      </c>
-      <c r="H258" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I258" s="1"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>346</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F259" s="11">
-        <v>3.3610879768925901E+17</v>
-      </c>
-      <c r="G259" s="5">
-        <v>42200</v>
-      </c>
-      <c r="H259" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I259" s="1"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F260" s="11">
-        <v>11109800204052</v>
+        <v>395</v>
+      </c>
+      <c r="F260" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="G260" s="5">
-        <v>42200</v>
+        <v>42201</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>320</v>
+        <v>396</v>
       </c>
       <c r="I260" s="1"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G261" s="5"/>
       <c r="I261" s="1"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G262" s="5"/>
       <c r="I262" s="1"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
+        <v>345</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F263" s="11">
+        <v>13938</v>
+      </c>
+      <c r="G263" s="5">
+        <v>42010</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I263" s="1"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>346</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F264" s="11">
+        <v>3.3610879768925901E+17</v>
+      </c>
+      <c r="G264" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I264" s="1"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>347</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F265" s="11">
+        <v>11109800204052</v>
+      </c>
+      <c r="G265" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I265" s="1"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G266" s="5"/>
+      <c r="I266" s="1"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G267" s="5"/>
+      <c r="I267" s="1"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
         <v>354</v>
       </c>
-      <c r="E263" s="3">
+      <c r="E268" s="3">
         <v>233</v>
       </c>
-      <c r="G263" s="5"/>
-      <c r="I263" s="1"/>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G264" s="5"/>
-      <c r="I264" s="1"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I265" s="1"/>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
-        <v>357</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F266" s="11">
-        <v>1739023853137</v>
-      </c>
-      <c r="G266" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H266" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I266" s="1"/>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I267" s="1"/>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G268" s="5"/>
       <c r="I268" s="1"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G269" s="5"/>
       <c r="I269" s="1"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -5713,22 +5734,22 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="F271" s="11">
-        <v>139602943319822</v>
-      </c>
-      <c r="G271" s="5">
-        <v>42100</v>
+        <v>1739023853137</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="I271" s="1"/>
     </row>
@@ -5739,120 +5760,120 @@
       <c r="I273" s="1"/>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
-        <v>387</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F274" s="11">
-        <v>696067597313468</v>
-      </c>
-      <c r="G274" s="5">
-        <v>42173</v>
-      </c>
-      <c r="H274" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I274" s="1"/>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I275" s="1"/>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>381</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F276" s="11">
+        <v>139602943319822</v>
+      </c>
+      <c r="G276" s="5">
+        <v>42100</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="I276" s="1"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
-        <v>429</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E277" s="3">
-        <v>203</v>
-      </c>
-      <c r="F277" s="11">
-        <v>98792821</v>
-      </c>
-      <c r="G277" s="5">
-        <v>42209</v>
-      </c>
-      <c r="H277" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="I277" s="1"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I278" s="1"/>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>387</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F279" s="11">
+        <v>696067597313468</v>
+      </c>
+      <c r="G279" s="5">
+        <v>42173</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I279" s="1"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I280" s="1"/>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
-        <v>435</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E281" s="3">
-        <v>137</v>
-      </c>
-      <c r="F281" s="11">
-        <v>252541322550</v>
-      </c>
-      <c r="G281" s="5">
-        <v>42178</v>
-      </c>
-      <c r="H281" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I281" s="1"/>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>429</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E282" s="3">
+        <v>203</v>
+      </c>
+      <c r="F282" s="11">
+        <v>98792821</v>
+      </c>
+      <c r="G282" s="5">
+        <v>42209</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="I282" s="1"/>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I283" s="1"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
-        <v>493</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F284" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="G284" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H284" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I284" s="1"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I285" s="1"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>435</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E286" s="3">
+        <v>137</v>
+      </c>
+      <c r="F286" s="11">
+        <v>252541322550</v>
+      </c>
+      <c r="G286" s="5">
+        <v>42178</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I286" s="1"/>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -5862,27 +5883,27 @@
       <c r="I288" s="1"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>493</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F289" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G289" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I289" s="1"/>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
-        <v>500</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F290" s="11">
-        <v>35407281</v>
-      </c>
-      <c r="G290" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H290" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I290" s="1"/>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -5895,48 +5916,30 @@
       <c r="I293" s="1"/>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A294" s="1">
-        <v>504</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F294" s="11">
-        <v>694687</v>
-      </c>
-      <c r="G294" s="5">
-        <v>42209</v>
-      </c>
-      <c r="H294" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="I294" s="1"/>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>500</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F295" s="11">
+        <v>35407281</v>
+      </c>
+      <c r="G295" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I295" s="1"/>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A296" s="1">
-        <v>506</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D296" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F296" s="11">
-        <v>18934502</v>
-      </c>
-      <c r="G296" s="5">
-        <v>42215</v>
-      </c>
-      <c r="H296" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I296" s="1"/>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -5946,33 +5949,48 @@
       <c r="I298" s="1"/>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>504</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F299" s="11">
+        <v>694687</v>
+      </c>
+      <c r="G299" s="5">
+        <v>42209</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="I299" s="1"/>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A300" s="1">
-        <v>516</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E300" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F300" s="11">
-        <v>939087315</v>
-      </c>
-      <c r="G300" s="5">
-        <v>42171</v>
-      </c>
-      <c r="H300" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="I300" s="1"/>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>506</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F301" s="11">
+        <v>18934502</v>
+      </c>
+      <c r="G301" s="5">
+        <v>42215</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I301" s="1"/>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -5984,52 +6002,73 @@
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I304" s="1"/>
     </row>
-    <row r="305" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>516</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F305" s="11">
+        <v>939087315</v>
+      </c>
+      <c r="G305" s="5">
+        <v>42171</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="I305" s="1"/>
     </row>
-    <row r="306" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I306" s="1"/>
     </row>
-    <row r="307" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I307" s="1"/>
     </row>
-    <row r="308" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I308" s="1"/>
     </row>
-    <row r="309" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I309" s="1"/>
     </row>
-    <row r="310" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I310" s="1"/>
     </row>
-    <row r="311" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I311" s="1"/>
     </row>
-    <row r="312" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I312" s="1"/>
     </row>
-    <row r="313" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I313" s="1"/>
     </row>
-    <row r="314" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I314" s="1"/>
     </row>
-    <row r="315" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I315" s="1"/>
     </row>
-    <row r="316" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I316" s="1"/>
     </row>
-    <row r="317" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I317" s="1"/>
     </row>
-    <row r="318" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I318" s="1"/>
     </row>
-    <row r="319" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I319" s="1"/>
     </row>
-    <row r="320" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I320" s="1"/>
     </row>
     <row r="321" spans="9:9" x14ac:dyDescent="0.25">
@@ -6478,6 +6517,21 @@
     </row>
     <row r="469" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I469" s="1"/>
+    </row>
+    <row r="470" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I470" s="1"/>
+    </row>
+    <row r="471" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I471" s="1"/>
+    </row>
+    <row r="472" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I472" s="1"/>
+    </row>
+    <row r="473" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I473" s="1"/>
+    </row>
+    <row r="474" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I474" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="424">
   <si>
     <t>Number</t>
   </si>
@@ -1277,6 +1277,15 @@
   </si>
   <si>
     <t>modular_multiplicative_inverse; to_base</t>
+  </si>
+  <si>
+    <t>850481152593119296</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Fibonacci Words</t>
   </si>
 </sst>
 </file>
@@ -1678,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J474"/>
+  <dimension ref="A1:J477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,7 +1700,7 @@
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="90.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="11" customWidth="1"/>
     <col min="7" max="7" width="19" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -5162,27 +5171,17 @@
       <c r="I207" s="1"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>220</v>
+      </c>
+      <c r="E208" s="3">
+        <v>230</v>
+      </c>
+      <c r="G208" s="5"/>
       <c r="I208" s="1"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>225</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F209" s="11">
-        <v>2009</v>
-      </c>
-      <c r="G209" s="5">
-        <v>41926</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G209" s="5"/>
       <c r="I209" s="1"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -5190,90 +5189,109 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
+        <v>225</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F211" s="11">
+        <v>2009</v>
+      </c>
+      <c r="G211" s="5">
+        <v>41926</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I211" s="1"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I212" s="1"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
         <v>227</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="D213" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F211" s="11">
+      <c r="F213" s="11">
         <v>3780.618622</v>
       </c>
-      <c r="G211" s="5">
+      <c r="G213" s="5">
         <v>41801</v>
       </c>
-      <c r="I211" s="1"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G212" s="5"/>
-      <c r="I212" s="1"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G213" s="5"/>
       <c r="I213" s="1"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>231</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F214" s="11">
-        <v>7526965179680</v>
-      </c>
-      <c r="G214" s="5">
-        <v>42205</v>
-      </c>
-      <c r="H214" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="G214" s="5"/>
       <c r="I214" s="1"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G215" s="5"/>
       <c r="I215" s="1"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
+        <v>230</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E216" s="3">
+        <v>220</v>
+      </c>
+      <c r="F216" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="G216" s="5">
+        <v>42227</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>231</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F217" s="11">
+        <v>7526965179680</v>
+      </c>
+      <c r="G217" s="5">
+        <v>42205</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>233</v>
       </c>
-      <c r="E216" s="3">
+      <c r="E219" s="3">
         <v>354</v>
       </c>
-      <c r="I216" s="1"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I217" s="1"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <v>235</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="F218" s="11">
-        <v>1.0023221086330001</v>
-      </c>
-      <c r="G218" s="5">
-        <v>42212</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I218" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I219" s="1"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -5281,9 +5299,26 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>243</v>
-      </c>
-      <c r="I221" s="1"/>
+        <v>235</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F221" s="11">
+        <v>1.0023221086330001</v>
+      </c>
+      <c r="G221" s="5">
+        <v>42212</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I222" s="1"/>
@@ -5293,157 +5328,135 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>248</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E224" s="3">
-        <v>72</v>
-      </c>
-      <c r="F224" s="11">
-        <v>23507044290</v>
-      </c>
-      <c r="G224" s="5">
-        <v>41798</v>
-      </c>
-      <c r="H224" s="1" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="I224" s="1"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G225" s="5"/>
       <c r="I225" s="1"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G226" s="5"/>
       <c r="I226" s="1"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
+        <v>248</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E227" s="3">
+        <v>72</v>
+      </c>
+      <c r="F227" s="11">
+        <v>23507044290</v>
+      </c>
+      <c r="G227" s="5">
+        <v>41798</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G228" s="5"/>
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G229" s="5"/>
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
         <v>265</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="D230" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F227" s="11">
+      <c r="F230" s="11">
         <v>209110240768</v>
       </c>
-      <c r="G227" s="5">
+      <c r="G230" s="5">
         <v>42190</v>
       </c>
-      <c r="H227" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I227" s="1"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I228" s="1"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
-        <v>267</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F229" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="G229" s="5">
-        <v>42200</v>
-      </c>
-      <c r="H229" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I229" s="1"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H230" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I230" s="1"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I231" s="1"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>267</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F232" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="G232" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I232" s="1"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
         <v>271</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="D236" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E233" s="3" t="s">
+      <c r="E236" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F233" s="16" t="s">
+      <c r="F236" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="G233" s="5">
+      <c r="G236" s="5">
         <v>41897</v>
       </c>
-      <c r="H233" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I233" s="1"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>272</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F234" s="16"/>
-      <c r="G234" s="5"/>
-      <c r="I234" s="1"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F235" s="16"/>
-      <c r="G235" s="5"/>
-      <c r="I235" s="1"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F236" s="16"/>
-      <c r="G236" s="5"/>
+      <c r="H236" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I236" s="1"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>284</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E237" s="3">
-        <v>168</v>
-      </c>
-      <c r="F237" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="G237" s="5">
-        <v>42225</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>320</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F237" s="16"/>
+      <c r="G237" s="5"/>
       <c r="I237" s="1"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -5452,54 +5465,73 @@
       <c r="I238" s="1"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F239" s="16"/>
+      <c r="G239" s="5"/>
       <c r="I239" s="1"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
+        <v>284</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E240" s="3">
+        <v>168</v>
+      </c>
+      <c r="F240" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="G240" s="5">
+        <v>42225</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F241" s="16"/>
+      <c r="G241" s="5"/>
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I242" s="1"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
         <v>301</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B243" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D240" s="3" t="s">
+      <c r="D243" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G240" s="5">
+      <c r="G243" s="5">
         <v>41746</v>
       </c>
-      <c r="I240" s="1"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I241" s="1"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I244" s="1"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
         <v>303</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B245" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D242" s="3" t="s">
+      <c r="D245" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G242" s="5">
+      <c r="G245" s="5">
         <v>41784</v>
       </c>
-      <c r="I242" s="1"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I243" s="1"/>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>305</v>
-      </c>
-      <c r="E244" s="3">
-        <v>40</v>
-      </c>
-      <c r="I244" s="1"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I245" s="1"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -5507,51 +5539,34 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>308</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F247" s="11">
-        <v>1539669807660920</v>
-      </c>
-      <c r="G247" s="5">
-        <v>41941</v>
-      </c>
-      <c r="H247" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
+      </c>
+      <c r="E247" s="3">
+        <v>40</v>
       </c>
       <c r="I247" s="1"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G248" s="5"/>
       <c r="I248" s="1"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G249" s="5"/>
       <c r="I249" s="1"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
+        <v>308</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E250" s="3">
-        <v>159</v>
-      </c>
       <c r="F250" s="11">
-        <v>13625242</v>
+        <v>1539669807660920</v>
       </c>
       <c r="G250" s="5">
-        <v>42161</v>
+        <v>41941</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I250" s="1"/>
     </row>
@@ -5565,16 +5580,22 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F253" s="16" t="s">
-        <v>340</v>
+        <v>354</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E253" s="3">
+        <v>159</v>
+      </c>
+      <c r="F253" s="11">
+        <v>13625242</v>
       </c>
       <c r="G253" s="5">
-        <v>42069</v>
+        <v>42161</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>320</v>
@@ -5582,7 +5603,6 @@
       <c r="I253" s="1"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F254" s="16"/>
       <c r="G254" s="5"/>
       <c r="I254" s="1"/>
     </row>
@@ -5591,30 +5611,30 @@
       <c r="I255" s="1"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>323</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F256" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G256" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I256" s="1"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <v>329</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F257" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="G257" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H257" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="F257" s="16"/>
+      <c r="G257" s="5"/>
       <c r="I257" s="1"/>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G258" s="5"/>
       <c r="I258" s="1"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -5622,22 +5642,22 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="F260" s="11" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="G260" s="5">
-        <v>42201</v>
+        <v>42069</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>396</v>
+        <v>320</v>
       </c>
       <c r="I260" s="1"/>
     </row>
@@ -5649,80 +5669,89 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
+        <v>336</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F263" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="G263" s="5">
+        <v>42201</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I263" s="1"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I264" s="1"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I265" s="1"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
         <v>345</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D263" s="3" t="s">
+      <c r="D266" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F263" s="11">
+      <c r="F266" s="11">
         <v>13938</v>
       </c>
-      <c r="G263" s="5">
+      <c r="G266" s="5">
         <v>42010</v>
       </c>
-      <c r="H263" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I263" s="1"/>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
+      <c r="H266" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I266" s="1"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
         <v>346</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B267" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F264" s="11">
+      <c r="F267" s="11">
         <v>3.3610879768925901E+17</v>
       </c>
-      <c r="G264" s="5">
+      <c r="G267" s="5">
         <v>42200</v>
       </c>
-      <c r="H264" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I264" s="1"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <v>347</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F265" s="11">
-        <v>11109800204052</v>
-      </c>
-      <c r="G265" s="5">
-        <v>42200</v>
-      </c>
-      <c r="H265" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I265" s="1"/>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G266" s="5"/>
-      <c r="I266" s="1"/>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G267" s="5"/>
+      <c r="H267" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I267" s="1"/>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>354</v>
-      </c>
-      <c r="E268" s="3">
-        <v>233</v>
-      </c>
-      <c r="G268" s="5"/>
+        <v>347</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F268" s="11">
+        <v>11109800204052</v>
+      </c>
+      <c r="G268" s="5">
+        <v>42200</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I268" s="1"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -5730,60 +5759,51 @@
       <c r="I269" s="1"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G270" s="5"/>
       <c r="I270" s="1"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>357</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F271" s="11">
-        <v>1739023853137</v>
-      </c>
-      <c r="G271" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>324</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="E271" s="3">
+        <v>233</v>
+      </c>
+      <c r="G271" s="5"/>
       <c r="I271" s="1"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G272" s="5"/>
       <c r="I272" s="1"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I273" s="1"/>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>357</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F274" s="11">
+        <v>1739023853137</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="I274" s="1"/>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I275" s="1"/>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
-        <v>381</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F276" s="11">
-        <v>139602943319822</v>
-      </c>
-      <c r="G276" s="5">
-        <v>42100</v>
-      </c>
-      <c r="H276" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="I276" s="1"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -5794,22 +5814,22 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="F279" s="11">
-        <v>696067597313468</v>
+        <v>139602943319822</v>
       </c>
       <c r="G279" s="5">
-        <v>42173</v>
+        <v>42100</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="I279" s="1"/>
     </row>
@@ -5821,25 +5841,22 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E282" s="3">
-        <v>203</v>
+        <v>373</v>
       </c>
       <c r="F282" s="11">
-        <v>98792821</v>
+        <v>696067597313468</v>
       </c>
       <c r="G282" s="5">
-        <v>42209</v>
+        <v>42173</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="I282" s="1"/>
     </row>
@@ -5850,30 +5867,30 @@
       <c r="I284" s="1"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>429</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E285" s="3">
+        <v>203</v>
+      </c>
+      <c r="F285" s="11">
+        <v>98792821</v>
+      </c>
+      <c r="G285" s="5">
+        <v>42209</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="I285" s="1"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
-        <v>435</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E286" s="3">
-        <v>137</v>
-      </c>
-      <c r="F286" s="11">
-        <v>252541322550</v>
-      </c>
-      <c r="G286" s="5">
-        <v>42178</v>
-      </c>
-      <c r="H286" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I286" s="1"/>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -5884,19 +5901,22 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>493</v>
+        <v>435</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F289" s="16" t="s">
-        <v>341</v>
+        <v>376</v>
+      </c>
+      <c r="E289" s="3">
+        <v>137</v>
+      </c>
+      <c r="F289" s="11">
+        <v>252541322550</v>
       </c>
       <c r="G289" s="5">
-        <v>42069</v>
+        <v>42178</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>320</v>
@@ -5910,6 +5930,24 @@
       <c r="I291" s="1"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>493</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F292" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G292" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I292" s="1"/>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -5919,24 +5957,6 @@
       <c r="I294" s="1"/>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A295" s="1">
-        <v>500</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F295" s="11">
-        <v>35407281</v>
-      </c>
-      <c r="G295" s="5">
-        <v>42069</v>
-      </c>
-      <c r="H295" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I295" s="1"/>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -5946,84 +5966,81 @@
       <c r="I297" s="1"/>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>500</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F298" s="11">
+        <v>35407281</v>
+      </c>
+      <c r="G298" s="5">
+        <v>42069</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I298" s="1"/>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A299" s="1">
-        <v>504</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F299" s="11">
-        <v>694687</v>
-      </c>
-      <c r="G299" s="5">
-        <v>42209</v>
-      </c>
-      <c r="H299" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="I299" s="1"/>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I300" s="1"/>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A301" s="1">
-        <v>506</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F301" s="11">
-        <v>18934502</v>
-      </c>
-      <c r="G301" s="5">
-        <v>42215</v>
-      </c>
-      <c r="H301" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="I301" s="1"/>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>504</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F302" s="11">
+        <v>694687</v>
+      </c>
+      <c r="G302" s="5">
+        <v>42209</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="I302" s="1"/>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I303" s="1"/>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>506</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F304" s="11">
+        <v>18934502</v>
+      </c>
+      <c r="G304" s="5">
+        <v>42215</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I304" s="1"/>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A305" s="1">
-        <v>516</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E305" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F305" s="11">
-        <v>939087315</v>
-      </c>
-      <c r="G305" s="5">
-        <v>42171</v>
-      </c>
-      <c r="H305" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="I305" s="1"/>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -6033,6 +6050,27 @@
       <c r="I307" s="1"/>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>516</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F308" s="11">
+        <v>939087315</v>
+      </c>
+      <c r="G308" s="5">
+        <v>42171</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="I308" s="1"/>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -6532,6 +6570,15 @@
     </row>
     <row r="474" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I474" s="1"/>
+    </row>
+    <row r="475" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I475" s="1"/>
+    </row>
+    <row r="476" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I476" s="1"/>
+    </row>
+    <row r="477" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I477" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="427">
   <si>
     <t>Number</t>
   </si>
@@ -1286,6 +1286,15 @@
   </si>
   <si>
     <t>Fibonacci Words</t>
+  </si>
+  <si>
+    <t>Exploring Pascal's triangle</t>
+  </si>
+  <si>
+    <t>to_base</t>
+  </si>
+  <si>
+    <t>2129970655314432</t>
   </si>
 </sst>
 </file>
@@ -1689,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E208" sqref="E208"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4374,7 +4383,24 @@
       <c r="I148" s="1"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G149" s="5"/>
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F149" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="G149" s="5">
+        <v>42228</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I149" s="1"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="431">
   <si>
     <t>Number</t>
   </si>
@@ -1295,6 +1295,18 @@
   </si>
   <si>
     <t>2129970655314432</t>
+  </si>
+  <si>
+    <t>A huge binomial coefficient</t>
+  </si>
+  <si>
+    <t>prime_sieve; nCk; crt; to_base; M</t>
+  </si>
+  <si>
+    <t>~about 6 minutes</t>
+  </si>
+  <si>
+    <t>162619462356610313</t>
   </si>
 </sst>
 </file>
@@ -1696,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J477"/>
+  <dimension ref="A1:J478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F277" sqref="F277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5833,90 +5845,108 @@
       <c r="I276" s="1"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>365</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F277" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="G277" s="5">
+        <v>42229</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="I277" s="1"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I278" s="1"/>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
+      <c r="I279" s="1"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
         <v>381</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B280" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D279" s="3" t="s">
+      <c r="D280" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="F279" s="11">
+      <c r="F280" s="11">
         <v>139602943319822</v>
       </c>
-      <c r="G279" s="5">
+      <c r="G280" s="5">
         <v>42100</v>
       </c>
-      <c r="H279" s="1" t="s">
+      <c r="H280" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I279" s="1"/>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I280" s="1"/>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I281" s="1"/>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
+      <c r="I282" s="1"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
         <v>387</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B283" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="D283" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F282" s="11">
+      <c r="F283" s="11">
         <v>696067597313468</v>
       </c>
-      <c r="G282" s="5">
+      <c r="G283" s="5">
         <v>42173</v>
       </c>
-      <c r="H282" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I282" s="1"/>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H283" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I283" s="1"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I284" s="1"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
+      <c r="I285" s="1"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
         <v>429</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B286" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D285" s="3" t="s">
+      <c r="D286" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E285" s="3">
+      <c r="E286" s="3">
         <v>203</v>
       </c>
-      <c r="F285" s="11">
+      <c r="F286" s="11">
         <v>98792821</v>
       </c>
-      <c r="G285" s="5">
+      <c r="G286" s="5">
         <v>42209</v>
       </c>
-      <c r="H285" s="1" t="s">
+      <c r="H286" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="I285" s="1"/>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I286" s="1"/>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -5926,57 +5956,57 @@
       <c r="I288" s="1"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
+      <c r="I289" s="1"/>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
         <v>435</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B290" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D289" s="3" t="s">
+      <c r="D290" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E289" s="3">
+      <c r="E290" s="3">
         <v>137</v>
       </c>
-      <c r="F289" s="11">
+      <c r="F290" s="11">
         <v>252541322550</v>
       </c>
-      <c r="G289" s="5">
+      <c r="G290" s="5">
         <v>42178</v>
       </c>
-      <c r="H289" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I289" s="1"/>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H290" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I290" s="1"/>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I291" s="1"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A292" s="1">
+      <c r="I292" s="1"/>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
         <v>493</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B293" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D292" s="3" t="s">
+      <c r="D293" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F292" s="16" t="s">
+      <c r="F293" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="G292" s="5">
+      <c r="G293" s="5">
         <v>42069</v>
       </c>
-      <c r="H292" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I292" s="1"/>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H293" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I293" s="1"/>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -5992,27 +6022,27 @@
       <c r="I297" s="1"/>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
+      <c r="I298" s="1"/>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
         <v>500</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B299" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D298" s="3" t="s">
+      <c r="D299" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F298" s="11">
+      <c r="F299" s="11">
         <v>35407281</v>
       </c>
-      <c r="G298" s="5">
+      <c r="G299" s="5">
         <v>42069</v>
       </c>
-      <c r="H298" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I298" s="1"/>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H299" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I299" s="1"/>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -6022,51 +6052,51 @@
       <c r="I301" s="1"/>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A302" s="1">
+      <c r="I302" s="1"/>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
         <v>504</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="B303" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D302" s="3" t="s">
+      <c r="D303" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F302" s="11">
+      <c r="F303" s="11">
         <v>694687</v>
       </c>
-      <c r="G302" s="5">
+      <c r="G303" s="5">
         <v>42209</v>
       </c>
-      <c r="H302" s="1" t="s">
+      <c r="H303" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="I302" s="1"/>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I303" s="1"/>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A304" s="1">
+      <c r="I304" s="1"/>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
         <v>506</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B305" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D304" s="3" t="s">
+      <c r="D305" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F304" s="11">
+      <c r="F305" s="11">
         <v>18934502</v>
       </c>
-      <c r="G304" s="5">
+      <c r="G305" s="5">
         <v>42215</v>
       </c>
-      <c r="H304" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I304" s="1"/>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H305" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I305" s="1"/>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -6076,30 +6106,30 @@
       <c r="I307" s="1"/>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A308" s="1">
+      <c r="I308" s="1"/>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
         <v>516</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B309" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D308" s="3" t="s">
+      <c r="D309" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E308" s="3" t="s">
+      <c r="E309" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F308" s="11">
+      <c r="F309" s="11">
         <v>939087315</v>
       </c>
-      <c r="G308" s="5">
+      <c r="G309" s="5">
         <v>42171</v>
       </c>
-      <c r="H308" s="1" t="s">
+      <c r="H309" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I308" s="1"/>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I309" s="1"/>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -6605,6 +6635,9 @@
     </row>
     <row r="477" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I477" s="1"/>
+    </row>
+    <row r="478" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I478" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="434">
   <si>
     <t>Number</t>
   </si>
@@ -1307,6 +1307,15 @@
   </si>
   <si>
     <t>162619462356610313</t>
+  </si>
+  <si>
+    <t>Primonacci</t>
+  </si>
+  <si>
+    <t>~about 3 min</t>
+  </si>
+  <si>
+    <t>next_prime; fib_mod</t>
   </si>
 </sst>
 </file>
@@ -1710,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F277" sqref="F277"/>
+    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5573,6 +5582,24 @@
       <c r="I245" s="1"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>304</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F246" s="11">
+        <v>283988410192</v>
+      </c>
+      <c r="G246" s="5">
+        <v>42242</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="I246" s="1"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="436">
   <si>
     <t>Number</t>
   </si>
@@ -1316,6 +1316,12 @@
   </si>
   <si>
     <t>next_prime; fib_mod</t>
+  </si>
+  <si>
+    <t>Constrained Sums</t>
+  </si>
+  <si>
+    <t>nCk; S; count_integral_solutions</t>
   </si>
 </sst>
 </file>
@@ -1719,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D247" sqref="D247"/>
+    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F314" sqref="F314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6172,6 +6178,24 @@
       <c r="I313" s="1"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>528</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F314" s="11">
+        <v>779027989</v>
+      </c>
+      <c r="G314" s="5">
+        <v>42283</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I314" s="1"/>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="0" windowWidth="2130" windowHeight="0"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4652" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4654" uniqueCount="441">
   <si>
     <t>Number</t>
   </si>
@@ -1334,12 +1334,15 @@
   </si>
   <si>
     <t>prime_sieve; is_probable_prime; check200; check_prime_proof</t>
+  </si>
+  <si>
+    <t>Divisibility streaks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -1524,6 +1527,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1559,6 +1579,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1737,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F193" sqref="F193"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A326" sqref="A326:H326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41081,6 +41118,21 @@
       <c r="I325" s="1"/>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>601</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F326" s="11">
+        <v>1617243</v>
+      </c>
+      <c r="G326" s="5">
+        <v>42855</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I326" s="1"/>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">

--- a/00 index.xlsx
+++ b/00 index.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="0" windowWidth="2130" windowHeight="0"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="445">
   <si>
     <t>Number</t>
   </si>
@@ -1343,15 +1343,22 @@
   </si>
   <si>
     <t>fsolve (scipy)</t>
+  </si>
+  <si>
+    <t>Pythagorean Ant</t>
+  </si>
+  <si>
+    <t>integrate (scipy)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1390,7 +1397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1438,6 +1445,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1781,7 +1791,7 @@
   <dimension ref="A1:J485"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A281" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291:XFD291"/>
+      <selection activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6392,52 +6402,70 @@
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I336" s="1"/>
     </row>
-    <row r="337" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>613</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F337" s="17">
+        <v>0.39167215039999997</v>
+      </c>
+      <c r="G337" s="5">
+        <v>43117</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I337" s="1"/>
     </row>
-    <row r="338" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I338" s="1"/>
     </row>
-    <row r="339" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I339" s="1"/>
     </row>
-    <row r="340" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I340" s="1"/>
     </row>
-    <row r="341" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I341" s="1"/>
     </row>
-    <row r="342" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I342" s="1"/>
     </row>
-    <row r="343" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I343" s="1"/>
     </row>
-    <row r="344" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I344" s="1"/>
     </row>
-    <row r="345" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I345" s="1"/>
     </row>
-    <row r="346" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I346" s="1"/>
     </row>
-    <row r="347" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I347" s="1"/>
     </row>
-    <row r="348" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I348" s="1"/>
     </row>
-    <row r="349" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I349" s="1"/>
     </row>
-    <row r="350" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I350" s="1"/>
     </row>
-    <row r="351" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I351" s="1"/>
     </row>
-    <row r="352" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I352" s="1"/>
     </row>
     <row r="353" spans="9:9" x14ac:dyDescent="0.25">
